--- a/Översikt HABO.xlsx
+++ b/Översikt HABO.xlsx
@@ -575,7 +575,7 @@
         <v>45337</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>44390</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45742.61181712963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>44749</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45183</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>45791.56258101852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44390</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>45810.83770833333</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>45534</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>45621.90853009259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>45419.38972222222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>45811</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>44749</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>45930</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>45635.60858796296</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>45106</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>45631.49844907408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>45635.6062037037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>45742.61011574074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>45742.60506944444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>44877</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>45807.56219907408</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>45597.48165509259</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>45882</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45635.58991898148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>45225</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>45534</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>45183</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44274</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44847.35423611111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>44853</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>44527</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44455.3859375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44769</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44237</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44260.38792824074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44824</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>44846</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>44424.39243055556</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>44362</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44424.40524305555</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>44693</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44877.83546296296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>44693</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>44640</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44424.39822916667</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>44424.40296296297</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44382</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44427.45282407408</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44670.58172453703</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44859</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44727</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44500</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44424</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>44237</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>44469.75280092593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>44623</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>44348.44641203704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>45475.55986111111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>45212</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>45029.6452662037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>45091.55373842592</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>45683.76944444444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>45660.48642361111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>45641.84190972222</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>45698.54895833333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>45636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>45543.56393518519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>45687.40525462963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>44801.57503472222</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>45111.38814814815</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>45597.4624537037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>45030</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>45478.48681712963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>45406.46671296296</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>45620.84238425926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>45621.90494212963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>45621.90680555555</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>45621.93943287037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>44571.60380787037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>44749</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>45475.55299768518</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>45475.55913194444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>45742.60814814815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>44488</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>44384</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>45146.55858796297</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>45364.6840162037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>45021</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>45734.48027777778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>45602.50542824074</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>45887.38887731481</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>45806.33793981482</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>45887.39712962963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>45621.9333449074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>44783.33467592593</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>45807.56061342593</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>45810.52659722222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>45595.95630787037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>45595.96761574074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>45030.67268518519</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>45810.83994212963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>44951</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>45810</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44384</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>45210.54012731482</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>45278</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>45812.60753472222</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>45813.62425925926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>45475.56065972222</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>45814.71005787037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>45896.79884259259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>45897.34652777778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>45621</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>45621.93097222222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>45621.93724537037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>44896.42854166667</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45597.468125</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>45903.46984953704</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>45811</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>45820.45122685185</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>45560.60371527778</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>45107.45170138889</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>44799.41391203704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>45799.59719907407</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>45467.65891203703</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>45827.45424768519</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>45827.45251157408</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>45121</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>45149.39180555556</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44749</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44749</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>44749</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>45833.71021990741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>45922.28649305556</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45635.61019675926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>45922.29103009259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>45923.59528935186</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>45111.39873842592</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>45091.54733796296</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>45603.40053240741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>45671.66295138889</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>45099</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>45099</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>45469</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>45926.34577546296</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>45835.66958333334</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>45646</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>45926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>45274</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>45833.78055555555</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>45316.43134259259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>45931.72253472222</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>45933.65431712963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44816.42069444444</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44845.56953703704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>45696.44892361111</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>45841.78908564815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>45760.58021990741</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44474.36921296296</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>45846.86206018519</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>45810.84284722222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44944.65483796296</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>45594.34168981481</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>45950.5884375</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>45951.50398148148</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>45951.50607638889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>45950.58693287037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>45620.8308912037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44628</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>45751.52873842593</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44575.29486111111</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>45020</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>45020</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>45875.54210648148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>45877.53517361111</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>45222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>45173.37297453704</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>45558.29855324074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>45635.6093287037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44894</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>45882</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>45967.66598379629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>45882.55325231481</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>45882</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45882</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>45469</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>45972</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>45882.55258101852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>44749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>44749</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>45974.58144675926</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>45882</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>45751.53125</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44628.6541087963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>45099</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>45429.34811342593</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>45400.54119212963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>45188.48688657407</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>45985.72394675926</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45450.65791666666</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45597.45862268518</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>45706.50554398148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>45985.72804398148</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>45985.73052083333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>45982</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>45120</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>45478.49003472222</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>46030.51197916667</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>45020</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>45747</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45698.55018518519</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45698.55255787037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>46037.65422453704</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>46037.66849537037</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>46037.66392361111</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45996</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>46041.62421296296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44797</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44913.54509259259</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44799</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>45287</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>46043.57814814815</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>45419.38777777777</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>46043.56719907407</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>46000.686875</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>46000.68230324074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>46000.6846412037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>45617.27299768518</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>46000.68589120371</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>46043.57157407407</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>46043.57262731482</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>46043.56471064815</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>46043.57667824074</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>45750.48006944444</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>45271</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>45638.44335648148</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>45450.64201388889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>45450.66217592593</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>45576.36799768519</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>45183.34355324074</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>46052.50719907408</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>46055.62700231482</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>45271.64642361111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>44876</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>45242.38527777778</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>44830</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>45677.67138888889</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>45218.6069212963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45203.35952546296</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>45246.79193287037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>45638.42907407408</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>46059.42384259259</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45733.31362268519</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>45594.34311342592</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>45595.96028935185</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>45470.40313657407</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>45620.84454861111</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>45620.8468287037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>45756.5894675926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>45450.63736111111</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45450.6659375</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>45400.53930555555</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>45689.57192129629</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45734.49229166667</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>45297.8840625</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>45638.43947916666</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>45113</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>45554</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>45236.28766203704</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>45220.40077546296</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>45356.85099537037</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>45616.81366898148</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>45664.84519675926</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>44939</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>44995</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>45091.55079861111</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>44877</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>45397</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>45307</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         <v>45580.94521990741</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>45007</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17805,7 +17805,7 @@
         <v>45152.73112268518</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>45510.35284722222</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>45576.36652777778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>45635.60771990741</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>45246</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>44801.56965277778</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>45720</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>45757.57725694445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>45757.57844907408</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18318,7 +18318,7 @@
         <v>45204.37240740741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18375,7 +18375,7 @@
         <v>45595.96385416666</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>45390</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>45631.63677083333</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44909.34195601852</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>45372.50304398148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>45647.29790509259</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>44488</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45636</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>44420</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45595.82958333333</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>45644.46246527778</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>45120</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19059,7 +19059,7 @@
         <v>45119.95571759259</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19116,7 +19116,7 @@
         <v>45119.95995370371</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19173,7 +19173,7 @@
         <v>44488</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19230,7 +19230,7 @@
         <v>44488</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44382.66885416667</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>45698.54723379629</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>45119.96327546296</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>45152.72302083333</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>44995.43578703704</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>45363</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44914.65731481482</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>45217.56189814815</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>45106</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>45119.99208333333</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45120</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>45120.00594907408</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>45120.05320601852</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>45687.41087962963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44775.56290509259</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>45310.62752314815</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>45777.59802083333</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>45777.59881944444</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>45789.53395833333</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>45790</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>45608</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>

--- a/Översikt HABO.xlsx
+++ b/Översikt HABO.xlsx
@@ -575,7 +575,7 @@
         <v>45337</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>44390</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45742.61181712963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>44749</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45183</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>45791.56258101852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44390</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>45810.83770833333</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>45534</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>45621.90853009259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>45419.38972222222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>45811</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>44749</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>45930</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>45635.60858796296</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>45106</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>45631.49844907408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>45635.6062037037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>45742.61011574074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>45742.60506944444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>44877</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>45807.56219907408</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>45597.48165509259</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>45882</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45635.58991898148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>45225</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>45534</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>45183</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44274</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44847.35423611111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>44853</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>44527</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44455.3859375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44769</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44237</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44260.38792824074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44824</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>44846</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>44424.39243055556</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>44362</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44424.40524305555</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>44693</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44877.83546296296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>44693</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>44640</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44424.39822916667</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>44424.40296296297</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44382</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44427.45282407408</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44670.58172453703</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44859</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44727</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44500</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44424</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>44237</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>44469.75280092593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>44623</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>44348.44641203704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>45475.55986111111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>45212</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>45029.6452662037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>45091.55373842592</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>45683.76944444444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>45660.48642361111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>45641.84190972222</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>45698.54895833333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>45636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>45543.56393518519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>45687.40525462963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>44801.57503472222</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>45111.38814814815</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>45597.4624537037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>45030</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>45478.48681712963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>45406.46671296296</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>45620.84238425926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>45621.90494212963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>45621.90680555555</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>45621.93943287037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>44571.60380787037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>44749</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>45475.55299768518</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>45475.55913194444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>45742.60814814815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>44488</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>44384</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>45146.55858796297</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>45364.6840162037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>45021</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>45734.48027777778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>45602.50542824074</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>45887.38887731481</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>45806.33793981482</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>45887.39712962963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>45621.9333449074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>44783.33467592593</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>45807.56061342593</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>45810.52659722222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>45595.95630787037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>45595.96761574074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>45030.67268518519</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>45810.83994212963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>44951</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>45810</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44384</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>45210.54012731482</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>45278</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>45812.60753472222</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>45813.62425925926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>45475.56065972222</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>45814.71005787037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>45896.79884259259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>45897.34652777778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>45621</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>45621.93097222222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>45621.93724537037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>44896.42854166667</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45597.468125</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>45903.46984953704</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>45811</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>45820.45122685185</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>45560.60371527778</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>45107.45170138889</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>44799.41391203704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>45799.59719907407</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>45467.65891203703</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>45827.45424768519</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>45827.45251157408</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>45121</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>45149.39180555556</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44749</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44749</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>44749</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>45833.71021990741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>45922.28649305556</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45635.61019675926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>45922.29103009259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>45923.59528935186</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>45111.39873842592</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>45091.54733796296</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>45603.40053240741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>45671.66295138889</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>45099</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>45099</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>45469</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>45926.34577546296</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>45835.66958333334</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>45646</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>45926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>45274</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>45833.78055555555</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>45316.43134259259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>45931.72253472222</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>45933.65431712963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44816.42069444444</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44845.56953703704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>45696.44892361111</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>45841.78908564815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>45760.58021990741</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44474.36921296296</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>45846.86206018519</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>45810.84284722222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44944.65483796296</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>45594.34168981481</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>45950.5884375</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>45951.50398148148</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>45951.50607638889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>45950.58693287037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>45620.8308912037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44628</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>45751.52873842593</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44575.29486111111</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>45020</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>45020</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>45875.54210648148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>45877.53517361111</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>45222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>45173.37297453704</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>45558.29855324074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>45635.6093287037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44894</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>45882</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>45967.66598379629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>45882.55325231481</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>45882</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45882</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>45469</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>45972</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>45882.55258101852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>44749</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>44749</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>45974.58144675926</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>45882</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>45751.53125</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44628.6541087963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>45099</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>45429.34811342593</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>45400.54119212963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>45188.48688657407</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>45985.72394675926</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45450.65791666666</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45597.45862268518</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>45706.50554398148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>45985.72804398148</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>45985.73052083333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>45982</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>45120</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>45478.49003472222</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>46030.51197916667</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>45020</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>45747</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45698.55018518519</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45698.55255787037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>46037.65422453704</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>46037.66849537037</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>46037.66392361111</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45996</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>46041.62421296296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44797</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44913.54509259259</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44799</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>45287</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>46043.57814814815</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>45419.38777777777</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>46043.56719907407</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>46000.686875</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>46000.68230324074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>46000.6846412037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>45617.27299768518</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>46000.68589120371</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>46043.57157407407</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>46043.57262731482</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>46043.56471064815</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>46043.57667824074</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>45750.48006944444</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>45271</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>45638.44335648148</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>45450.64201388889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>45450.66217592593</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>45576.36799768519</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>45183.34355324074</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>46052.50719907408</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>46055.62700231482</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>45271.64642361111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>44876</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>45242.38527777778</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>44830</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>45677.67138888889</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>45218.6069212963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45203.35952546296</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>45246.79193287037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>45638.42907407408</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>46059.42384259259</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45733.31362268519</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>45594.34311342592</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>45595.96028935185</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>45470.40313657407</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>45620.84454861111</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>45620.8468287037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>45756.5894675926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>45450.63736111111</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45450.6659375</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>45400.53930555555</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>45689.57192129629</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45734.49229166667</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>45297.8840625</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>45638.43947916666</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>45113</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>45554</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>45236.28766203704</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>45220.40077546296</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>45356.85099537037</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>45616.81366898148</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>45664.84519675926</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>44939</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>44995</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>45091.55079861111</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>44877</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>45397</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>45307</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         <v>45580.94521990741</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>45007</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17805,7 +17805,7 @@
         <v>45152.73112268518</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>45510.35284722222</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>45576.36652777778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>45635.60771990741</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>45246</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>44801.56965277778</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>45720</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>45757.57725694445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>45757.57844907408</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18318,7 +18318,7 @@
         <v>45204.37240740741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18375,7 +18375,7 @@
         <v>45595.96385416666</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>45390</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>45631.63677083333</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44909.34195601852</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>45372.50304398148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>45647.29790509259</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>44488</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45636</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>44420</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45595.82958333333</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>45644.46246527778</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>45120</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19059,7 +19059,7 @@
         <v>45119.95571759259</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19116,7 +19116,7 @@
         <v>45119.95995370371</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19173,7 +19173,7 @@
         <v>44488</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19230,7 +19230,7 @@
         <v>44488</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44382.66885416667</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>45698.54723379629</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>45119.96327546296</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>45152.72302083333</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>44995.43578703704</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>45363</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44914.65731481482</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>45217.56189814815</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>45106</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>45119.99208333333</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45120</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>45120.00594907408</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>45120.05320601852</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>45687.41087962963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44775.56290509259</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>45310.62752314815</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>45777.59802083333</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>45777.59881944444</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>45789.53395833333</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>45790</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>45608</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>

--- a/Översikt HABO.xlsx
+++ b/Översikt HABO.xlsx
@@ -575,7 +575,7 @@
         <v>45337</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>44390</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45742.61181712963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>44749</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45183</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>45791.56258101852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44390</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1226,14 +1226,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 26880-2025</t>
+          <t>A 55371-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45810.83770833333</v>
+        <v>45621.90853009259</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>11.4</v>
+        <v>10.6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1287,27 +1287,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 26880-2025 artfynd.xlsx", "A 26880-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 55371-2024 artfynd.xlsx", "A 55371-2024")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 26880-2025 karta.png", "A 26880-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 55371-2024 karta.png", "A 55371-2024")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 26880-2025 FSC-klagomål.docx", "A 26880-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 55371-2024 FSC-klagomål.docx", "A 55371-2024")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 26880-2025 FSC-klagomål mail.docx", "A 26880-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 55371-2024 FSC-klagomål mail.docx", "A 55371-2024")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 26880-2025 tillsynsbegäran.docx", "A 26880-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 55371-2024 tillsynsbegäran.docx", "A 55371-2024")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 26880-2025 tillsynsbegäran mail.docx", "A 26880-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 55371-2024 tillsynsbegäran mail.docx", "A 55371-2024")</f>
         <v/>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
         <v>45534</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1407,14 +1407,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 55371-2024</t>
+          <t>A 26880-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45621.90853009259</v>
+        <v>45810.83770833333</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>10.6</v>
+        <v>11.4</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1468,27 +1468,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 55371-2024 artfynd.xlsx", "A 55371-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 26880-2025 artfynd.xlsx", "A 26880-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 55371-2024 karta.png", "A 55371-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 26880-2025 karta.png", "A 26880-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 55371-2024 FSC-klagomål.docx", "A 55371-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 26880-2025 FSC-klagomål.docx", "A 26880-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 55371-2024 FSC-klagomål mail.docx", "A 55371-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 26880-2025 FSC-klagomål mail.docx", "A 26880-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 55371-2024 tillsynsbegäran.docx", "A 55371-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 26880-2025 tillsynsbegäran.docx", "A 26880-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 55371-2024 tillsynsbegäran mail.docx", "A 55371-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 26880-2025 tillsynsbegäran mail.docx", "A 26880-2025")</f>
         <v/>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
         <v>45419.38972222222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,14 +1590,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 26934-2025</t>
+          <t>A 58667-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45811</v>
+        <v>45635.60858796296</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1610,10 +1610,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>7.4</v>
+        <v>1.8</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1644,136 +1644,140 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Motaggsvamp
+Vaddporing</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 58667-2024 artfynd.xlsx", "A 58667-2024")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 58667-2024 karta.png", "A 58667-2024")</f>
+        <v/>
+      </c>
+      <c r="U13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/knärot/A 58667-2024 karta knärot.png", "A 58667-2024")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 58667-2024 FSC-klagomål.docx", "A 58667-2024")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 58667-2024 FSC-klagomål mail.docx", "A 58667-2024")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 58667-2024 tillsynsbegäran.docx", "A 58667-2024")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 58667-2024 tillsynsbegäran mail.docx", "A 58667-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 26934-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45811</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>HABO</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Tallriska
 Talltita</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 26934-2025 artfynd.xlsx", "A 26934-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 26934-2025 karta.png", "A 26934-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 26934-2025 FSC-klagomål.docx", "A 26934-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 26934-2025 FSC-klagomål mail.docx", "A 26934-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 26934-2025 tillsynsbegäran.docx", "A 26934-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 26934-2025 tillsynsbegäran mail.docx", "A 26934-2025")</f>
         <v/>
       </c>
-      <c r="Z13">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/fåglar/A 26934-2025 prioriterade fågelarter.docx", "A 26934-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 28842-2022</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>44749</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>HABO</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Skrovlig taggsvamp
-Blomkålssvamp</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 28842-2022 artfynd.xlsx", "A 28842-2022")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 28842-2022 karta.png", "A 28842-2022")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 28842-2022 FSC-klagomål.docx", "A 28842-2022")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 28842-2022 FSC-klagomål mail.docx", "A 28842-2022")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 28842-2022 tillsynsbegäran.docx", "A 28842-2022")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 28842-2022 tillsynsbegäran mail.docx", "A 28842-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 47199-2025</t>
+          <t>A 57916-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45930</v>
+        <v>45631.49844907408</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1786,19 +1790,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1813,136 +1817,132 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>2</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Motaggsvamp
+Blomkålssvamp</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 57916-2024 artfynd.xlsx", "A 57916-2024")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 57916-2024 karta.png", "A 57916-2024")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 57916-2024 FSC-klagomål.docx", "A 57916-2024")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 57916-2024 FSC-klagomål mail.docx", "A 57916-2024")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 57916-2024 tillsynsbegäran.docx", "A 57916-2024")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 57916-2024 tillsynsbegäran mail.docx", "A 57916-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 47199-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45930</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HABO</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Knärot
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 47199-2025 artfynd.xlsx", "A 47199-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 47199-2025 karta.png", "A 47199-2025")</f>
         <v/>
       </c>
-      <c r="U15">
+      <c r="U16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/knärot/A 47199-2025 karta knärot.png", "A 47199-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 47199-2025 FSC-klagomål.docx", "A 47199-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 47199-2025 FSC-klagomål mail.docx", "A 47199-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 47199-2025 tillsynsbegäran.docx", "A 47199-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 47199-2025 tillsynsbegäran mail.docx", "A 47199-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 58667-2024</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45635.60858796296</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HABO</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Vaddporing</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 58667-2024 artfynd.xlsx", "A 58667-2024")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 58667-2024 karta.png", "A 58667-2024")</f>
-        <v/>
-      </c>
-      <c r="U16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/knärot/A 58667-2024 karta knärot.png", "A 58667-2024")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 58667-2024 FSC-klagomål.docx", "A 58667-2024")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 58667-2024 FSC-klagomål mail.docx", "A 58667-2024")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 58667-2024 tillsynsbegäran.docx", "A 58667-2024")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 58667-2024 tillsynsbegäran mail.docx", "A 58667-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>45106</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2032,14 +2032,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 57916-2024</t>
+          <t>A 28842-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45631.49844907408</v>
+        <v>44749</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2086,32 +2086,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp
+          <t>Skrovlig taggsvamp
 Blomkålssvamp</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 57916-2024 artfynd.xlsx", "A 57916-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 28842-2022 artfynd.xlsx", "A 28842-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 57916-2024 karta.png", "A 57916-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 28842-2022 karta.png", "A 28842-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 57916-2024 FSC-klagomål.docx", "A 57916-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 28842-2022 FSC-klagomål.docx", "A 28842-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 57916-2024 FSC-klagomål mail.docx", "A 57916-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 28842-2022 FSC-klagomål mail.docx", "A 28842-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 57916-2024 tillsynsbegäran.docx", "A 57916-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 28842-2022 tillsynsbegäran.docx", "A 28842-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 57916-2024 tillsynsbegäran mail.docx", "A 57916-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 28842-2022 tillsynsbegäran mail.docx", "A 28842-2022")</f>
         <v/>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
         <v>45635.6062037037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2204,14 +2204,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 14713-2025</t>
+          <t>A 52417-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45742.61011574074</v>
+        <v>45225</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -2248,55 +2248,55 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Mellanlummer</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 14713-2025 artfynd.xlsx", "A 14713-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 52417-2023 artfynd.xlsx", "A 52417-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 14713-2025 karta.png", "A 14713-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 52417-2023 karta.png", "A 52417-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 14713-2025 FSC-klagomål.docx", "A 14713-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 52417-2023 FSC-klagomål.docx", "A 52417-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 14713-2025 FSC-klagomål mail.docx", "A 14713-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 52417-2023 FSC-klagomål mail.docx", "A 52417-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 14713-2025 tillsynsbegäran.docx", "A 14713-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 52417-2023 tillsynsbegäran.docx", "A 52417-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 14713-2025 tillsynsbegäran mail.docx", "A 14713-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 52417-2023 tillsynsbegäran mail.docx", "A 52417-2023")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 14704-2025</t>
+          <t>A 36227-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45742.60506944444</v>
+        <v>45534</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,18 +2308,23 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>14</v>
+        <v>6.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
@@ -2333,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2343,31 +2348,31 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 14704-2025 artfynd.xlsx", "A 14704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 36227-2024 artfynd.xlsx", "A 36227-2024")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 14704-2025 karta.png", "A 14704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 36227-2024 karta.png", "A 36227-2024")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 14704-2025 FSC-klagomål.docx", "A 14704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 36227-2024 FSC-klagomål.docx", "A 36227-2024")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 14704-2025 FSC-klagomål mail.docx", "A 14704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 36227-2024 FSC-klagomål mail.docx", "A 36227-2024")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 14704-2025 tillsynsbegäran.docx", "A 14704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 36227-2024 tillsynsbegäran.docx", "A 36227-2024")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 14704-2025 tillsynsbegäran mail.docx", "A 14704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 36227-2024 tillsynsbegäran mail.docx", "A 36227-2024")</f>
         <v/>
       </c>
     </row>
@@ -2381,7 +2386,7 @@
         <v>44877</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2459,14 +2464,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 26520-2025</t>
+          <t>A 58644-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45807.56219907408</v>
+        <v>45635.58991898148</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2479,7 +2484,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2513,564 +2518,559 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 58644-2024 artfynd.xlsx", "A 58644-2024")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 58644-2024 karta.png", "A 58644-2024")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 58644-2024 FSC-klagomål.docx", "A 58644-2024")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 58644-2024 FSC-klagomål mail.docx", "A 58644-2024")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 58644-2024 tillsynsbegäran.docx", "A 58644-2024")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 58644-2024 tillsynsbegäran mail.docx", "A 58644-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 38055-2025</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>45882</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>HABO</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 38055-2025 artfynd.xlsx", "A 38055-2025")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 38055-2025 karta.png", "A 38055-2025")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 38055-2025 FSC-klagomål.docx", "A 38055-2025")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 38055-2025 FSC-klagomål mail.docx", "A 38055-2025")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 38055-2025 tillsynsbegäran.docx", "A 38055-2025")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 38055-2025 tillsynsbegäran mail.docx", "A 38055-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A 44439-2023</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>HABO</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="S25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 44439-2023 artfynd.xlsx", "A 44439-2023")</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 44439-2023 karta.png", "A 44439-2023")</f>
+        <v/>
+      </c>
+      <c r="V25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 44439-2023 FSC-klagomål.docx", "A 44439-2023")</f>
+        <v/>
+      </c>
+      <c r="W25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 44439-2023 FSC-klagomål mail.docx", "A 44439-2023")</f>
+        <v/>
+      </c>
+      <c r="X25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 44439-2023 tillsynsbegäran.docx", "A 44439-2023")</f>
+        <v/>
+      </c>
+      <c r="Y25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 44439-2023 tillsynsbegäran mail.docx", "A 44439-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A 49866-2024</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>45597.48165509259</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>HABO</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>Ask</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 49866-2024 artfynd.xlsx", "A 49866-2024")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 49866-2024 karta.png", "A 49866-2024")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 49866-2024 FSC-klagomål.docx", "A 49866-2024")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 49866-2024 FSC-klagomål mail.docx", "A 49866-2024")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 49866-2024 tillsynsbegäran.docx", "A 49866-2024")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 49866-2024 tillsynsbegäran mail.docx", "A 49866-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 14713-2025</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>45742.61011574074</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>HABO</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>Mellanlummer</t>
+        </is>
+      </c>
+      <c r="S27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 14713-2025 artfynd.xlsx", "A 14713-2025")</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 14713-2025 karta.png", "A 14713-2025")</f>
+        <v/>
+      </c>
+      <c r="V27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 14713-2025 FSC-klagomål.docx", "A 14713-2025")</f>
+        <v/>
+      </c>
+      <c r="W27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 14713-2025 FSC-klagomål mail.docx", "A 14713-2025")</f>
+        <v/>
+      </c>
+      <c r="X27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 14713-2025 tillsynsbegäran.docx", "A 14713-2025")</f>
+        <v/>
+      </c>
+      <c r="Y27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 14713-2025 tillsynsbegäran mail.docx", "A 14713-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A 14704-2025</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>45742.60506944444</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>HABO</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>14</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 14704-2025 artfynd.xlsx", "A 14704-2025")</f>
+        <v/>
+      </c>
+      <c r="T28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 14704-2025 karta.png", "A 14704-2025")</f>
+        <v/>
+      </c>
+      <c r="V28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 14704-2025 FSC-klagomål.docx", "A 14704-2025")</f>
+        <v/>
+      </c>
+      <c r="W28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 14704-2025 FSC-klagomål mail.docx", "A 14704-2025")</f>
+        <v/>
+      </c>
+      <c r="X28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 14704-2025 tillsynsbegäran.docx", "A 14704-2025")</f>
+        <v/>
+      </c>
+      <c r="Y28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 14704-2025 tillsynsbegäran mail.docx", "A 14704-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A 26520-2025</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>45807.56219907408</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>HABO</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
           <t>Dunmossa</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S29">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 26520-2025 artfynd.xlsx", "A 26520-2025")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T29">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 26520-2025 karta.png", "A 26520-2025")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V29">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 26520-2025 FSC-klagomål.docx", "A 26520-2025")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W29">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 26520-2025 FSC-klagomål mail.docx", "A 26520-2025")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X29">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 26520-2025 tillsynsbegäran.docx", "A 26520-2025")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y29">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 26520-2025 tillsynsbegäran mail.docx", "A 26520-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 49866-2024</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45597.48165509259</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>HABO</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Ask</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 49866-2024 artfynd.xlsx", "A 49866-2024")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 49866-2024 karta.png", "A 49866-2024")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 49866-2024 FSC-klagomål.docx", "A 49866-2024")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 49866-2024 FSC-klagomål mail.docx", "A 49866-2024")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 49866-2024 tillsynsbegäran.docx", "A 49866-2024")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 49866-2024 tillsynsbegäran mail.docx", "A 49866-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 38055-2025</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>45882</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>HABO</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 38055-2025 artfynd.xlsx", "A 38055-2025")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 38055-2025 karta.png", "A 38055-2025")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 38055-2025 FSC-klagomål.docx", "A 38055-2025")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 38055-2025 FSC-klagomål mail.docx", "A 38055-2025")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 38055-2025 tillsynsbegäran.docx", "A 38055-2025")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 38055-2025 tillsynsbegäran mail.docx", "A 38055-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 58644-2024</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>45635.58991898148</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>HABO</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 58644-2024 artfynd.xlsx", "A 58644-2024")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 58644-2024 karta.png", "A 58644-2024")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 58644-2024 FSC-klagomål.docx", "A 58644-2024")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 58644-2024 FSC-klagomål mail.docx", "A 58644-2024")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 58644-2024 tillsynsbegäran.docx", "A 58644-2024")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 58644-2024 tillsynsbegäran mail.docx", "A 58644-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A 52417-2023</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>45225</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>HABO</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1</v>
-      </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Grönvit nattviol</t>
-        </is>
-      </c>
-      <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 52417-2023 artfynd.xlsx", "A 52417-2023")</f>
-        <v/>
-      </c>
-      <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 52417-2023 karta.png", "A 52417-2023")</f>
-        <v/>
-      </c>
-      <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 52417-2023 FSC-klagomål.docx", "A 52417-2023")</f>
-        <v/>
-      </c>
-      <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 52417-2023 FSC-klagomål mail.docx", "A 52417-2023")</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 52417-2023 tillsynsbegäran.docx", "A 52417-2023")</f>
-        <v/>
-      </c>
-      <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 52417-2023 tillsynsbegäran mail.docx", "A 52417-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>A 36227-2024</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>45534</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>HABO</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp</t>
-        </is>
-      </c>
-      <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 36227-2024 artfynd.xlsx", "A 36227-2024")</f>
-        <v/>
-      </c>
-      <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 36227-2024 karta.png", "A 36227-2024")</f>
-        <v/>
-      </c>
-      <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 36227-2024 FSC-klagomål.docx", "A 36227-2024")</f>
-        <v/>
-      </c>
-      <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 36227-2024 FSC-klagomål mail.docx", "A 36227-2024")</f>
-        <v/>
-      </c>
-      <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 36227-2024 tillsynsbegäran.docx", "A 36227-2024")</f>
-        <v/>
-      </c>
-      <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 36227-2024 tillsynsbegäran mail.docx", "A 36227-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>A 44439-2023</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>45183</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>HABO</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp</t>
-        </is>
-      </c>
-      <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 44439-2023 artfynd.xlsx", "A 44439-2023")</f>
-        <v/>
-      </c>
-      <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 44439-2023 karta.png", "A 44439-2023")</f>
-        <v/>
-      </c>
-      <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 44439-2023 FSC-klagomål.docx", "A 44439-2023")</f>
-        <v/>
-      </c>
-      <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 44439-2023 FSC-klagomål mail.docx", "A 44439-2023")</f>
-        <v/>
-      </c>
-      <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 44439-2023 tillsynsbegäran.docx", "A 44439-2023")</f>
-        <v/>
-      </c>
-      <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 44439-2023 tillsynsbegäran mail.docx", "A 44439-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44274</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44847.35423611111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>44853</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>44527</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44455.3859375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44769</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44237</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44260.38792824074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44824</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>44846</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>44424.39243055556</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>44362</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44424.40524305555</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>44693</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44877.83546296296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>44693</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>44640</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4105,14 +4105,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 41213-2021</t>
+          <t>A 34734-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44424.39822916667</v>
+        <v>44382</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.1</v>
+        <v>7.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4162,14 +4162,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 41216-2021</t>
+          <t>A 41213-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44424.40296296297</v>
+        <v>44424.39822916667</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4219,14 +4219,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 34734-2021</t>
+          <t>A 41216-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44382</v>
+        <v>44424.40296296297</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>7.4</v>
+        <v>3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4283,7 +4283,7 @@
         <v>44427.45282407408</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44670.58172453703</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44859</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44727</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44500</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44424</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>44237</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>44469.75280092593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>44623</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>44348.44641203704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4903,14 +4903,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 27795-2024</t>
+          <t>A 35574-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45475.55986111111</v>
+        <v>44799.41391203704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4960,14 +4960,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 49673-2023</t>
+          <t>A 47532-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45212</v>
+        <v>45203.35952546296</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5017,14 +5017,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 16509-2023</t>
+          <t>A 2374-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45029.6452662037</v>
+        <v>45310.62752314815</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.3</v>
+        <v>6.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5074,14 +5074,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 26212-2023</t>
+          <t>A 6230-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45091.55373842592</v>
+        <v>45698.55018518519</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5131,14 +5131,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 3847-2025</t>
+          <t>A 6233-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45683.76944444444</v>
+        <v>45698.55255787037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.8</v>
+        <v>0.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5188,14 +5188,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 272-2025</t>
+          <t>A 51027-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45660.48642361111</v>
+        <v>45218.6069212963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5245,14 +5245,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 59917-2024</t>
+          <t>A 9931-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45641.84190972222</v>
+        <v>45363</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5302,14 +5302,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 6229-2025</t>
+          <t>A 476-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45698.54895833333</v>
+        <v>45297.8840625</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5359,14 +5359,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 59058-2024</t>
+          <t>A 28685-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45636</v>
+        <v>45478.48681712963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5416,14 +5416,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 37802-2024</t>
+          <t>A 23145-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45543.56393518519</v>
+        <v>45450.63736111111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5473,14 +5473,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 4549-2025</t>
+          <t>A 23156-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45687.40525462963</v>
+        <v>45450.6659375</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5530,14 +5530,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 35779-2022</t>
+          <t>A 13850-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44801.57503472222</v>
+        <v>45390</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5587,14 +5587,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 30340-2023</t>
+          <t>A 48894-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45111.38814814815</v>
+        <v>45594.34311342592</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5644,14 +5644,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 49849-2024</t>
+          <t>A 26774-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45597.4624537037</v>
+        <v>45469</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5663,13 +5663,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5706,14 +5701,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 16727-2023</t>
+          <t>A 54990-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45030</v>
+        <v>45620.8468287037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5726,7 +5721,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5763,14 +5758,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 28685-2024</t>
+          <t>A 2073-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45478.48681712963</v>
+        <v>44939</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5783,7 +5778,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5820,14 +5815,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 16108-2024</t>
+          <t>A 57755-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45406.46671296296</v>
+        <v>45246.79193287037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5840,7 +5835,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5877,14 +5872,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 54988-2024</t>
+          <t>A 58673-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45620.84238425926</v>
+        <v>45635.61019675926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5897,7 +5892,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5934,14 +5929,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 55369-2024</t>
+          <t>A 58452-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45621.90494212963</v>
+        <v>44488</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5954,7 +5949,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5991,14 +5986,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 55370-2024</t>
+          <t>A 58458-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45621.90680555555</v>
+        <v>44488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6011,7 +6006,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>11.5</v>
+        <v>1.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6048,14 +6043,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 55376-2024</t>
+          <t>A 49855-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45621.93943287037</v>
+        <v>45597.468125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6067,8 +6062,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6105,14 +6105,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 1004-2022</t>
+          <t>A 61580-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44571.60380787037</v>
+        <v>45646</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6162,14 +6162,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 28825-2022</t>
+          <t>A 41622-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44749</v>
+        <v>45560.60371527778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6219,14 +6219,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 27791-2024</t>
+          <t>A 2861-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45475.55299768518</v>
+        <v>45677.67138888889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6276,14 +6276,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 27794-2024</t>
+          <t>A 11075-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45475.55913194444</v>
+        <v>44628.6541087963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6333,14 +6333,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 32331-2023</t>
+          <t>A 51016-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45120</v>
+        <v>45603.40053240741</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6390,14 +6390,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 14707-2025</t>
+          <t>A 1915-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45742.60814814815</v>
+        <v>45671.66295138889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6447,14 +6447,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 58452-2021</t>
+          <t>A 35115-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44488</v>
+        <v>44384</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.1</v>
+        <v>8.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6504,14 +6504,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 35115-2021</t>
+          <t>A 26932-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44384</v>
+        <v>45811</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>8.4</v>
+        <v>1.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6561,14 +6561,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 35369-2023</t>
+          <t>A 58452-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45146.55858796297</v>
+        <v>44488</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6618,14 +6618,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 10167-2024</t>
+          <t>A 28780-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45364.6840162037</v>
+        <v>45820.45122685185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6675,14 +6675,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 15802-2023</t>
+          <t>A 37802-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45021</v>
+        <v>45543.56393518519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6732,14 +6732,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 12991-2025</t>
+          <t>A 59057-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45734.48027777778</v>
+        <v>45636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6789,14 +6789,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 50804-2024</t>
+          <t>A 49446-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45602.50542824074</v>
+        <v>45595.95630787037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6846,14 +6846,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 38749-2025</t>
+          <t>A 49449-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45887.38887731481</v>
+        <v>45595.96761574074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6903,14 +6903,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 26364-2025</t>
+          <t>A 28821-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45806.33793981482</v>
+        <v>44749</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6960,14 +6960,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 38759-2025</t>
+          <t>A 11906-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45887.39712962963</v>
+        <v>44995</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7017,14 +7017,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 55373-2024</t>
+          <t>A 30272-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45621.9333449074</v>
+        <v>45827.45251157408</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7074,14 +7074,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 32545-2022</t>
+          <t>A 30274-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44783.33467592593</v>
+        <v>45827.45424768519</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7093,13 +7093,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7136,14 +7131,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 26519-2025</t>
+          <t>A 49168-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45807.56061342593</v>
+        <v>45210.54012731482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7156,7 +7151,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7193,14 +7188,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 26742-2025</t>
+          <t>A 38759-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45810.52659722222</v>
+        <v>45887.39712962963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7213,7 +7208,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7250,14 +7245,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 49446-2024</t>
+          <t>A 38749-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45595.95630787037</v>
+        <v>45887.38887731481</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7270,7 +7265,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7307,14 +7302,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 49449-2024</t>
+          <t>A 40280-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45595.96761574074</v>
+        <v>45554</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7327,7 +7322,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.6</v>
+        <v>6.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7364,14 +7359,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 16726-2023</t>
+          <t>A 31609-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45030.67268518519</v>
+        <v>45833.78055555555</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7384,7 +7379,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7421,14 +7416,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 26881-2025</t>
+          <t>A 26364-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45810.83994212963</v>
+        <v>45806.33793981482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7441,7 +7436,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>11.6</v>
+        <v>3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7478,14 +7473,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 3710-2023</t>
+          <t>A 38069-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44951</v>
+        <v>45882</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7497,8 +7492,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>1.7</v>
+        <v>6.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7535,14 +7535,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 26873-2025</t>
+          <t>A 31597-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45810</v>
+        <v>45833.71021990741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7592,14 +7592,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 35115-2021</t>
+          <t>A 60971-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44384</v>
+        <v>44914.65731481482</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>8.4</v>
+        <v>0.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7649,14 +7649,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 49168-2023</t>
+          <t>A 38779-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45210.54012731482</v>
+        <v>44816.42069444444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7706,14 +7706,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 63922-2023</t>
+          <t>A 32278-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45278</v>
+        <v>45835.66958333334</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7763,14 +7763,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 27327-2025</t>
+          <t>A 12606-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45812.60753472222</v>
+        <v>45733.31362268519</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>7.1</v>
+        <v>1.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7820,14 +7820,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 27669-2025</t>
+          <t>A 49849-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45813.62425925926</v>
+        <v>45597.4624537037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7839,8 +7839,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>7.2</v>
+        <v>0.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7877,14 +7882,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 27796-2024</t>
+          <t>A 33706-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45475.56065972222</v>
+        <v>45841.78908564815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7897,7 +7902,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7934,14 +7939,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 27732-2025</t>
+          <t>A 40725-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45814.71005787037</v>
+        <v>45897.34652777778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7954,7 +7959,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7998,7 +8003,7 @@
         <v>45896.79884259259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8048,14 +8053,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 40725-2025</t>
+          <t>A 29733-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45897.34652777778</v>
+        <v>45107.45170138889</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8068,7 +8073,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.1</v>
+        <v>0.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8105,14 +8110,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 55368-2024</t>
+          <t>A 34452-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45621</v>
+        <v>45846.86206018519</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8125,7 +8130,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8162,14 +8167,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 55372-2024</t>
+          <t>A 59439-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45621.93097222222</v>
+        <v>45638.43947916666</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8182,7 +8187,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8219,14 +8224,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 55375-2024</t>
+          <t>A 26882-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45621.93724537037</v>
+        <v>45810.84284722222</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8239,7 +8244,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8276,14 +8281,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 57360-2022</t>
+          <t>A 58430-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44896.42854166667</v>
+        <v>44488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8296,7 +8301,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8333,14 +8338,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 49855-2024</t>
+          <t>A 41962-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45597.468125</v>
+        <v>45903.46984953704</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8352,13 +8357,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8395,14 +8395,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 41962-2025</t>
+          <t>A 6069-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45903.46984953704</v>
+        <v>45696.44892361111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8452,14 +8452,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 26932-2025</t>
+          <t>A 25954-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45811</v>
+        <v>45467.65891203703</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8509,14 +8509,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 28780-2025</t>
+          <t>A 24981-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45820.45122685185</v>
+        <v>45799.59719907407</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8566,14 +8566,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 41622-2024</t>
+          <t>A 32238-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45560.60371527778</v>
+        <v>45119.96327546296</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8623,14 +8623,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 29733-2023</t>
+          <t>A 32245-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45107.45170138889</v>
+        <v>45119.99208333333</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8680,14 +8680,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 35574-2022</t>
+          <t>A 32246-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44799.41391203704</v>
+        <v>45120</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8737,14 +8737,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 24981-2025</t>
+          <t>A 16458-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45799.59719907407</v>
+        <v>45751.52873842593</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8794,14 +8794,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 25954-2024</t>
+          <t>A 37128-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45467.65891203703</v>
+        <v>45875.54210648148</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.8</v>
+        <v>4.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8851,14 +8851,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 30274-2025</t>
+          <t>A 35369-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45827.45424768519</v>
+        <v>45146.55858796297</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8908,14 +8908,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 30272-2025</t>
+          <t>A 272-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45827.45251157408</v>
+        <v>45660.48642361111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8965,14 +8965,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 32539-2023</t>
+          <t>A 37438-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45121</v>
+        <v>45877.53517361111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9022,14 +9022,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 36036-2023</t>
+          <t>A 61665-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45149.39180555556</v>
+        <v>45647.29790509259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9079,14 +9079,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 28810-2022</t>
+          <t>A 38122-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44749</v>
+        <v>45882.55258101852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9136,14 +9136,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 28817-2022</t>
+          <t>A 38065-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44749</v>
+        <v>45882</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9155,8 +9155,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>22.4</v>
+        <v>4.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9193,14 +9198,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 28821-2022</t>
+          <t>A 38125-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44749</v>
+        <v>45882.55325231481</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9213,7 +9218,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9250,14 +9255,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 31597-2025</t>
+          <t>A 45321-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45833.71021990741</v>
+        <v>45922.28649305556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9270,7 +9275,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9307,14 +9312,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 45321-2025</t>
+          <t>A 45322-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45922.28649305556</v>
+        <v>45922.29103009259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9327,7 +9332,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9364,14 +9369,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 58673-2024</t>
+          <t>A 38063-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45635.61019675926</v>
+        <v>45882</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9383,8 +9388,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>0.4</v>
+        <v>11.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9421,14 +9431,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 45322-2025</t>
+          <t>A 38067-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45922.29103009259</v>
+        <v>45882</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9440,8 +9450,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9485,7 +9500,7 @@
         <v>45923.59528935186</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9535,14 +9550,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 30350-2023</t>
+          <t>A 34738-2021</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45111.39873842592</v>
+        <v>44382.66885416667</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9555,7 +9570,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9592,14 +9607,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 26202-2023</t>
+          <t>A 28690-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45091.54733796296</v>
+        <v>45478.49003472222</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9612,7 +9627,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9649,14 +9664,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 51016-2024</t>
+          <t>A 23148-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45603.40053240741</v>
+        <v>45450.64201388889</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9669,7 +9684,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9706,14 +9721,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 1915-2025</t>
+          <t>A 23153-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45671.66295138889</v>
+        <v>45450.66217592593</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9726,7 +9741,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9763,14 +9778,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 28131-2023</t>
+          <t>A 6226-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45099</v>
+        <v>45698.54723379629</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9783,7 +9798,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9820,14 +9835,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 28140-2023</t>
+          <t>A 6229-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45099</v>
+        <v>45698.54895833333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9840,7 +9855,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9877,14 +9892,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 26774-2024</t>
+          <t>A 4549-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45469</v>
+        <v>45687.40525462963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9897,7 +9912,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9934,14 +9949,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 46551-2025</t>
+          <t>A 46589-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45926.34577546296</v>
+        <v>45926</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9954,7 +9969,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9991,14 +10006,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 32278-2025</t>
+          <t>A 46551-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45835.66958333334</v>
+        <v>45926.34577546296</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10011,7 +10026,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10048,14 +10063,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 61580-2024</t>
+          <t>A 17519-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45646</v>
+        <v>45757.57725694445</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10068,7 +10083,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10105,14 +10120,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 46589-2025</t>
+          <t>A 17520-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45926</v>
+        <v>45757.57844907408</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10125,7 +10140,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10162,14 +10177,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 63418-2023</t>
+          <t>A 47773-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45274</v>
+        <v>45931.72253472222</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10182,7 +10197,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10219,14 +10234,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 31609-2025</t>
+          <t>A 30350-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45833.78055555555</v>
+        <v>45111.39873842592</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10239,7 +10254,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10276,14 +10291,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 3077-2024</t>
+          <t>A 55368-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45316.43134259259</v>
+        <v>45621</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10296,7 +10311,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10333,14 +10348,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 47773-2025</t>
+          <t>A 55372-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45931.72253472222</v>
+        <v>45621.93097222222</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10353,7 +10368,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10390,14 +10405,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 48348-2025</t>
+          <t>A 55375-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45933.65431712963</v>
+        <v>45621.93724537037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10410,7 +10425,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>9.4</v>
+        <v>3.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10447,14 +10462,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 38779-2022</t>
+          <t>A 30863-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44816.42069444444</v>
+        <v>45113</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10467,7 +10482,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10504,14 +10519,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 45601-2022</t>
+          <t>A 41910-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44845.56953703704</v>
+        <v>44830</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10524,7 +10539,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3</v>
+        <v>7.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10561,14 +10576,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 6069-2025</t>
+          <t>A 13880-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45696.44892361111</v>
+        <v>45007</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10581,7 +10596,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10618,14 +10633,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 33706-2025</t>
+          <t>A 16459-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45841.78908564815</v>
+        <v>45751.53125</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10638,7 +10653,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10675,14 +10690,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 17941-2025</t>
+          <t>A 40883-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45760.58021990741</v>
+        <v>45173.37297453704</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10695,7 +10710,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10732,14 +10747,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 54892-2021</t>
+          <t>A 48348-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44474.36921296296</v>
+        <v>45933.65431712963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10752,7 +10767,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.5</v>
+        <v>9.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10789,14 +10804,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 34452-2025</t>
+          <t>A 53264-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45846.86206018519</v>
+        <v>44876</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10809,7 +10824,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10846,14 +10861,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 26882-2025</t>
+          <t>A 40575-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45810.84284722222</v>
+        <v>44420</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10866,7 +10881,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10903,14 +10918,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 2780-2023</t>
+          <t>A 4957-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44944.65483796296</v>
+        <v>45689.57192129629</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10923,7 +10938,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10960,14 +10975,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 48893-2024</t>
+          <t>A 45601-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45594.34168981481</v>
+        <v>44845.56953703704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10980,7 +10995,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11017,14 +11032,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 51447-2025</t>
+          <t>A 56767-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45950.5884375</v>
+        <v>44894</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11037,7 +11052,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11074,14 +11089,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 51674-2025</t>
+          <t>A 54989-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45951.50398148148</v>
+        <v>45620.84454861111</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11094,7 +11109,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11131,14 +11146,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 51676-2025</t>
+          <t>A 26207-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45951.50607638889</v>
+        <v>45091.55079861111</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11151,7 +11166,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11188,14 +11203,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 51446-2025</t>
+          <t>A 28810-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45950.58693287037</v>
+        <v>44749</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11208,7 +11223,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11245,14 +11260,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 54987-2024</t>
+          <t>A 28817-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45620.8308912037</v>
+        <v>44749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11265,7 +11280,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>4.2</v>
+        <v>22.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11302,14 +11317,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 10943-2022</t>
+          <t>A 54693-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44628</v>
+        <v>45236.28766203704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11322,7 +11337,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.7</v>
+        <v>5.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11359,14 +11374,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 16458-2025</t>
+          <t>A 51447-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45751.52873842593</v>
+        <v>45950.5884375</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11379,7 +11394,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11416,14 +11431,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 1876-2022</t>
+          <t>A 57999-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44575.29486111111</v>
+        <v>45631.63677083333</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11436,7 +11451,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11473,14 +11488,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 15516-2023</t>
+          <t>A 40638-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45020</v>
+        <v>45558.29855324074</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11493,7 +11508,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11530,14 +11545,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 15518-2023</t>
+          <t>A 51446-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45020</v>
+        <v>45950.58693287037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11550,7 +11565,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11587,14 +11602,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 37128-2025</t>
+          <t>A 51676-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45875.54210648148</v>
+        <v>45951.50607638889</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11607,7 +11622,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11644,14 +11659,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 37438-2025</t>
+          <t>A 28131-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45877.53517361111</v>
+        <v>45099</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11664,7 +11679,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11701,14 +11716,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 51588-2023</t>
+          <t>A 51674-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45222</v>
+        <v>45951.50398148148</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11721,7 +11736,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11758,14 +11773,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 40883-2023</t>
+          <t>A 59058-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45173.37297453704</v>
+        <v>45636</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11778,7 +11793,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11815,14 +11830,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 40638-2024</t>
+          <t>A 32331-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45558.29855324074</v>
+        <v>45120</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11835,7 +11850,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11872,14 +11887,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 58668-2024</t>
+          <t>A 65067-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45635.6093287037</v>
+        <v>45287</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11892,7 +11907,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11929,14 +11944,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 56767-2022</t>
+          <t>A 15517-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44894</v>
+        <v>45020</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11949,7 +11964,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11986,14 +12001,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 38065-2025</t>
+          <t>A 14724-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45882</v>
+        <v>45397</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12005,13 +12020,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12048,14 +12058,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 55048-2025</t>
+          <t>A 3710-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45967.66598379629</v>
+        <v>44951</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12068,7 +12078,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12105,14 +12115,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 38125-2025</t>
+          <t>A 55048-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45882.55325231481</v>
+        <v>45967.66598379629</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12125,7 +12135,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12162,14 +12172,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 38063-2025</t>
+          <t>A 55647-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45882</v>
+        <v>45972</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12181,13 +12191,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>11.4</v>
+        <v>0.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12224,14 +12229,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 38067-2025</t>
+          <t>A 16509-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45882</v>
+        <v>45029.6452662037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12243,13 +12248,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12286,14 +12286,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 26329-2024</t>
+          <t>A 17845-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45469</v>
+        <v>45419.38777777777</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12305,13 +12305,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>4.9</v>
+        <v>0.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12348,14 +12343,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 55647-2025</t>
+          <t>A 56266-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45972</v>
+        <v>45974.58144675926</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12368,7 +12363,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12405,14 +12400,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 38122-2025</t>
+          <t>A 36036-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45882.55258101852</v>
+        <v>45149.39180555556</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12425,7 +12420,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12462,14 +12457,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 28813-2022</t>
+          <t>A 31909-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44749</v>
+        <v>45510.35284722222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12482,7 +12477,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12519,14 +12514,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 28816-2022</t>
+          <t>A 27796-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44749</v>
+        <v>45475.56065972222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12539,7 +12534,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>5.2</v>
+        <v>1.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12576,14 +12571,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 56266-2025</t>
+          <t>A 32539-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45974.58144675926</v>
+        <v>45121</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12633,14 +12628,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 38069-2025</t>
+          <t>A 45275-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45882</v>
+        <v>45576.36652777778</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12652,13 +12647,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>6.8</v>
+        <v>0.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12695,14 +12685,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 16459-2025</t>
+          <t>A 50804-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45751.53125</v>
+        <v>45602.50542824074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12715,7 +12705,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12752,14 +12742,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 11075-2022</t>
+          <t>A 58668-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44628.6541087963</v>
+        <v>45635.6093287037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12772,7 +12762,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12809,14 +12799,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 28135-2023</t>
+          <t>A 15516-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45099</v>
+        <v>45020</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12829,7 +12819,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12866,14 +12856,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 19370-2024</t>
+          <t>A 15518-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45429.34811342593</v>
+        <v>45020</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12886,7 +12876,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12923,14 +12913,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 15252-2024</t>
+          <t>A 28140-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45400.54119212963</v>
+        <v>45099</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12943,7 +12933,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.2</v>
+        <v>3.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12980,14 +12970,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 44158-2023</t>
+          <t>A 59433-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45188.48688657407</v>
+        <v>45638.42907407408</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13000,7 +12990,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.1</v>
+        <v>10.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13037,14 +13027,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 58526-2025</t>
+          <t>A 7754-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45985.72394675926</v>
+        <v>45706.50554398148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13056,13 +13046,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>8.300000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13099,14 +13084,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 23152-2024</t>
+          <t>A 55369-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45450.65791666666</v>
+        <v>45621.90494212963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13119,7 +13104,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13156,14 +13141,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 49846-2024</t>
+          <t>A 55370-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45597.45862268518</v>
+        <v>45621.90680555555</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13175,13 +13160,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>1.6</v>
+        <v>11.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13218,14 +13198,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 7754-2025</t>
+          <t>A 55376-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45706.50554398148</v>
+        <v>45621.93943287037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13238,7 +13218,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13275,14 +13255,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 58527-2025</t>
+          <t>A 19370-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45985.72804398148</v>
+        <v>45429.34811342593</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13294,13 +13274,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13337,14 +13312,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 58528-2025</t>
+          <t>A 46062-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45985.73052083333</v>
+        <v>45580.94521990741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13356,13 +13331,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13399,14 +13369,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 58158-2025</t>
+          <t>A 32235-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45982</v>
+        <v>45119.95571759259</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13419,7 +13389,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>3.7</v>
+        <v>7.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13456,14 +13426,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 32252-2023</t>
+          <t>A 32236-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45120</v>
+        <v>45119.95995370371</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13476,7 +13446,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13513,14 +13483,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 28690-2024</t>
+          <t>A 8849-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45478.49003472222</v>
+        <v>45356.85099537037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13533,7 +13503,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13570,14 +13540,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 929-2026</t>
+          <t>A 58526-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46030.51197916667</v>
+        <v>45985.72394675926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13589,8 +13559,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13627,14 +13602,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 15517-2023</t>
+          <t>A 45277-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45020</v>
+        <v>45576.36799768519</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13647,7 +13622,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13684,14 +13659,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 15587-2025</t>
+          <t>A 58527-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45747</v>
+        <v>45985.72804398148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13703,8 +13678,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G215" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13741,14 +13721,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 6230-2025</t>
+          <t>A 58528-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45698.55018518519</v>
+        <v>45985.73052083333</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13760,8 +13740,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13798,14 +13783,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 6233-2025</t>
+          <t>A 55373-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45698.55255787037</v>
+        <v>45621.9333449074</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13818,7 +13803,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13855,14 +13840,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 2681-2026</t>
+          <t>A 58158-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>46037.65422453704</v>
+        <v>45982</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13875,7 +13860,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13912,14 +13897,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 2693-2026</t>
+          <t>A 30340-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46037.66849537037</v>
+        <v>45111.38814814815</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13932,7 +13917,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13969,14 +13954,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 2690-2026</t>
+          <t>A 1004-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46037.66392361111</v>
+        <v>44571.60380787037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13989,7 +13974,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.3</v>
+        <v>2.3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14026,14 +14011,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 60583-2025</t>
+          <t>A 929-2026</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45996</v>
+        <v>46030.51197916667</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14046,7 +14031,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14083,14 +14068,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 3282-2026</t>
+          <t>A 23152-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46041.62421296296</v>
+        <v>45450.65791666666</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14103,7 +14088,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14140,14 +14125,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 35148-2022</t>
+          <t>A 29408-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44797</v>
+        <v>45106</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14160,7 +14145,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14197,14 +14182,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 60726-2022</t>
+          <t>A 54270-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44913.54509259259</v>
+        <v>45616.81366898148</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14217,7 +14202,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14254,14 +14239,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 35626-2022</t>
+          <t>A 54288-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44799</v>
+        <v>45617.27299768518</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14271,11 +14256,6 @@
       <c r="E225" t="inlineStr">
         <is>
           <t>HABO</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G225" t="n">
@@ -14316,14 +14296,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 65067-2023</t>
+          <t>A 59440-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45287</v>
+        <v>45638.44335648148</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14336,7 +14316,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14373,14 +14353,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 3794-2026</t>
+          <t>A 3847-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>46043.57814814815</v>
+        <v>45683.76944444444</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14393,7 +14373,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14430,14 +14410,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 17845-2024</t>
+          <t>A 32545-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45419.38777777777</v>
+        <v>44783.33467592593</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14449,8 +14429,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G228" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14487,14 +14472,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 3778-2026</t>
+          <t>A 49846-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>46043.56719907407</v>
+        <v>45597.45862268518</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14506,8 +14491,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14544,14 +14534,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 61275-2025</t>
+          <t>A 2681-2026</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46000.686875</v>
+        <v>46037.65422453704</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14564,7 +14554,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14601,14 +14591,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 61269-2025</t>
+          <t>A 2693-2026</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>46000.68230324074</v>
+        <v>46037.66849537037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14621,7 +14611,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14658,14 +14648,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 61271-2025</t>
+          <t>A 28135-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>46000.6846412037</v>
+        <v>45099</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14678,7 +14668,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14715,14 +14705,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 54288-2024</t>
+          <t>A 60583-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45617.27299768518</v>
+        <v>45996</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14735,7 +14725,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14772,14 +14762,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 61273-2025</t>
+          <t>A 2690-2026</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>46000.68589120371</v>
+        <v>46037.66392361111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14792,7 +14782,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14829,14 +14819,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 3783-2026</t>
+          <t>A 4551-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>46043.57157407407</v>
+        <v>45687.41087962963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14849,7 +14839,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>4.1</v>
+        <v>0.4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14886,14 +14876,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 3787-2026</t>
+          <t>A 51444-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>46043.57262731482</v>
+        <v>45220.40077546296</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14906,7 +14896,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14943,14 +14933,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 3775-2026</t>
+          <t>A 3282-2026</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>46043.56471064815</v>
+        <v>46041.62421296296</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14963,7 +14953,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15000,14 +14990,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 3792-2026</t>
+          <t>A 54987-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>46043.57667824074</v>
+        <v>45620.8308912037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15020,7 +15010,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15057,14 +15047,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 16149-2025</t>
+          <t>A 48893-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45750.48006944444</v>
+        <v>45594.34168981481</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15077,7 +15067,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15114,14 +15104,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 62745-2023</t>
+          <t>A 36481-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45271</v>
+        <v>45152.72302083333</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15134,7 +15124,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15171,14 +15161,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 59440-2024</t>
+          <t>A 32329-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45638.44335648148</v>
+        <v>45120</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15191,7 +15181,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15228,14 +15218,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 23148-2024</t>
+          <t>A 57422-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45450.64201388889</v>
+        <v>45246</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15248,7 +15238,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15285,14 +15275,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 23153-2024</t>
+          <t>A 3775-2026</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45450.66217592593</v>
+        <v>46043.56471064815</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15305,7 +15295,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15342,14 +15332,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 45277-2024</t>
+          <t>A 3792-2026</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45576.36799768519</v>
+        <v>46043.57667824074</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15362,7 +15352,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15399,14 +15389,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 43160-2023</t>
+          <t>A 3783-2026</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45183.34355324074</v>
+        <v>46043.57157407407</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15419,7 +15409,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15456,14 +15446,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 5961-2026</t>
+          <t>A 32252-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>46052.50719907408</v>
+        <v>45120</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15476,7 +15466,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15513,14 +15503,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 6367-2026</t>
+          <t>A 61271-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>46055.62700231482</v>
+        <v>46000.6846412037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15533,7 +15523,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15570,14 +15560,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 62764-2023</t>
+          <t>A 61275-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45271.64642361111</v>
+        <v>46000.686875</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15590,7 +15580,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15627,14 +15617,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 53264-2022</t>
+          <t>A 61273-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44876</v>
+        <v>46000.68589120371</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15647,7 +15637,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15684,14 +15674,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 56289-2023</t>
+          <t>A 3778-2026</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45242.38527777778</v>
+        <v>46043.56719907407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15703,13 +15693,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G250" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15746,14 +15731,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 41910-2022</t>
+          <t>A 3794-2026</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44830</v>
+        <v>46043.57814814815</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15766,7 +15751,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>7.6</v>
+        <v>1.7</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15803,14 +15788,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 2861-2025</t>
+          <t>A 61269-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45677.67138888889</v>
+        <v>46000.68230324074</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15823,7 +15808,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15860,14 +15845,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 51027-2023</t>
+          <t>A 43160-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45218.6069212963</v>
+        <v>45183.34355324074</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15880,7 +15865,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15917,14 +15902,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 47532-2023</t>
+          <t>A 3787-2026</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45203.35952546296</v>
+        <v>46043.57262731482</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15937,7 +15922,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15974,14 +15959,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 57755-2023</t>
+          <t>A 44158-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45246.79193287037</v>
+        <v>45188.48688657407</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15994,7 +15979,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16031,14 +16016,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 59433-2024</t>
+          <t>A 28825-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45638.42907407408</v>
+        <v>44749</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16051,7 +16036,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>10.4</v>
+        <v>1.7</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16088,14 +16073,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 7419-2026</t>
+          <t>A 17941-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>46059.42384259259</v>
+        <v>45760.58021990741</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16108,7 +16093,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16145,14 +16130,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 12606-2025</t>
+          <t>A 35775-2022</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45733.31362268519</v>
+        <v>44801.56965277778</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16165,7 +16150,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16202,14 +16187,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 48894-2024</t>
+          <t>A 3077-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45594.34311342592</v>
+        <v>45316.43134259259</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16222,7 +16207,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16259,14 +16244,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 49447-2024</t>
+          <t>A 12999-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45595.96028935185</v>
+        <v>45734.49229166667</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16279,7 +16264,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16316,14 +16301,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 26711-2024</t>
+          <t>A 56289-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45470.40313657407</v>
+        <v>45242.38527777778</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16335,8 +16320,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G261" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16373,14 +16363,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 54989-2024</t>
+          <t>A 17294-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45620.84454861111</v>
+        <v>45756.5894675926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16393,7 +16383,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16430,14 +16420,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 54990-2024</t>
+          <t>A 27791-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45620.8468287037</v>
+        <v>45475.55299768518</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16450,7 +16440,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16487,14 +16477,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 17294-2025</t>
+          <t>A 27794-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45756.5894675926</v>
+        <v>45475.55913194444</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16507,7 +16497,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16544,14 +16534,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 23145-2024</t>
+          <t>A 6367-2026</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45450.63736111111</v>
+        <v>46055.62700231482</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16564,7 +16554,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16601,14 +16591,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 23156-2024</t>
+          <t>A 5961-2026</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45450.6659375</v>
+        <v>46052.50719907408</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16621,7 +16611,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16658,14 +16648,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 15251-2024</t>
+          <t>A 49673-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45400.53930555555</v>
+        <v>45212</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16678,7 +16668,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16715,14 +16705,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 4957-2025</t>
+          <t>A 63418-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45689.57192129629</v>
+        <v>45274</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16735,7 +16725,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16772,14 +16762,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 12999-2025</t>
+          <t>A 62745-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45734.49229166667</v>
+        <v>45271</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16792,7 +16782,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16829,14 +16819,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 476-2024</t>
+          <t>A 49433-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45297.8840625</v>
+        <v>45595.82958333333</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16849,7 +16839,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16886,14 +16876,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 59439-2024</t>
+          <t>A 63922-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45638.43947916666</v>
+        <v>45278</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16906,7 +16896,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16943,14 +16933,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 30863-2023</t>
+          <t>A 57360-2022</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45113</v>
+        <v>44896.42854166667</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16963,7 +16953,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17000,14 +16990,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 40280-2024</t>
+          <t>A 7419-2026</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45554</v>
+        <v>46059.42384259259</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17020,7 +17010,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>6.9</v>
+        <v>0.4</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17057,14 +17047,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 54693-2023</t>
+          <t>A 1876-2022</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45236.28766203704</v>
+        <v>44575.29486111111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17077,7 +17067,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>5.3</v>
+        <v>1.4</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17114,14 +17104,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 51444-2023</t>
+          <t>A 59928-2022</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45220.40077546296</v>
+        <v>44909.34195601852</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17134,7 +17124,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17171,14 +17161,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 8849-2024</t>
+          <t>A 35626-2022</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45356.85099537037</v>
+        <v>44799</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17190,8 +17180,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G276" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17228,14 +17223,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 54270-2024</t>
+          <t>A 16108-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45616.81366898148</v>
+        <v>45406.46671296296</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17248,7 +17243,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17285,14 +17280,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 679-2025</t>
+          <t>A 16727-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45664.84519675926</v>
+        <v>45030</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17342,14 +17337,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 2073-2023</t>
+          <t>A 35779-2022</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44939</v>
+        <v>44801.57503472222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17362,7 +17357,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17399,14 +17394,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 11906-2023</t>
+          <t>A 62764-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44995</v>
+        <v>45271.64642361111</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17419,7 +17414,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17456,14 +17451,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 26207-2023</t>
+          <t>A 28813-2022</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45091.55079861111</v>
+        <v>44749</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17476,7 +17471,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17513,14 +17508,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 53300-2022</t>
+          <t>A 28816-2022</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44877</v>
+        <v>44749</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17533,7 +17528,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>2.2</v>
+        <v>5.2</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17570,14 +17565,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 14724-2024</t>
+          <t>A 11887-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45397</v>
+        <v>44995.43578703704</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17590,7 +17585,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17627,14 +17622,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 1699-2024</t>
+          <t>A 49447-2024</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45307</v>
+        <v>45595.96028935185</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17647,7 +17642,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17684,14 +17679,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 46062-2024</t>
+          <t>A 35148-2022</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45580.94521990741</v>
+        <v>44797</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17704,7 +17699,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17741,14 +17736,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 13880-2023</t>
+          <t>A 2780-2023</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45007</v>
+        <v>44944.65483796296</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17761,7 +17756,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17805,7 +17800,7 @@
         <v>45152.73112268518</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17855,14 +17850,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 31909-2024</t>
+          <t>A 60726-2022</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45510.35284722222</v>
+        <v>44913.54509259259</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17875,7 +17870,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17912,14 +17907,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 45275-2024</t>
+          <t>A 16726-2023</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45576.36652777778</v>
+        <v>45030.67268518519</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17932,7 +17927,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17969,14 +17964,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 58666-2024</t>
+          <t>A 32247-2023</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45635.60771990741</v>
+        <v>45120.00594907408</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17989,7 +17984,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -18026,14 +18021,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 57422-2023</t>
+          <t>A 32253-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45246</v>
+        <v>45120.05320601852</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18046,7 +18041,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -18083,14 +18078,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 35775-2022</t>
+          <t>A 15252-2024</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>44801.56965277778</v>
+        <v>45400.54119212963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18103,7 +18098,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -18140,14 +18135,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 10330-2025</t>
+          <t>A 54988-2024</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45720</v>
+        <v>45620.84238425926</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18160,7 +18155,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -18197,14 +18192,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 17519-2025</t>
+          <t>A 10943-2022</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45757.57725694445</v>
+        <v>44628</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18217,7 +18212,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -18254,14 +18249,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 17520-2025</t>
+          <t>A 59917-2024</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45757.57844907408</v>
+        <v>45641.84190972222</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18274,7 +18269,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -18311,14 +18306,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 47836-2023</t>
+          <t>A 26202-2023</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45204.37240740741</v>
+        <v>45091.54733796296</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18331,7 +18326,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>4.8</v>
+        <v>0.2</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18368,14 +18363,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 49448-2024</t>
+          <t>A 26212-2023</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45595.96385416666</v>
+        <v>45091.55373842592</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18388,7 +18383,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18425,14 +18420,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 13850-2024</t>
+          <t>A 47836-2023</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45390</v>
+        <v>45204.37240740741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18445,7 +18440,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18482,14 +18477,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 57999-2024</t>
+          <t>A 16149-2025</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45631.63677083333</v>
+        <v>45750.48006944444</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18502,7 +18497,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18539,14 +18534,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 59928-2022</t>
+          <t>A 31591-2022</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>44909.34195601852</v>
+        <v>44775.56290509259</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18596,14 +18591,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 11426-2024</t>
+          <t>A 49448-2024</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45372.50304398148</v>
+        <v>45595.96385416666</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18616,7 +18611,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18653,14 +18648,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 61665-2024</t>
+          <t>A 1699-2024</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45647.29790509259</v>
+        <v>45307</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18673,7 +18668,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18710,14 +18705,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 58430-2021</t>
+          <t>A 58666-2024</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>44488</v>
+        <v>45635.60771990741</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18730,7 +18725,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18767,14 +18762,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 59057-2024</t>
+          <t>A 35115-2021</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45636</v>
+        <v>44384</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18787,7 +18782,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>1.7</v>
+        <v>8.4</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18824,14 +18819,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 40575-2021</t>
+          <t>A 51588-2023</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>44420</v>
+        <v>45222</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18844,7 +18839,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18881,14 +18876,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 49433-2024</t>
+          <t>A 679-2025</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45595.82958333333</v>
+        <v>45664.84519675926</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18901,7 +18896,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18938,14 +18933,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 60679-2024</t>
+          <t>A 26711-2024</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45644.46246527778</v>
+        <v>45470.40313657407</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18958,7 +18953,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18995,14 +18990,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 32329-2023</t>
+          <t>A 11426-2024</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45120</v>
+        <v>45372.50304398148</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19015,7 +19010,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -19052,14 +19047,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 32235-2023</t>
+          <t>A 54892-2021</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45119.95571759259</v>
+        <v>44474.36921296296</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19072,7 +19067,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>7.1</v>
+        <v>1.5</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -19109,14 +19104,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 32236-2023</t>
+          <t>A 53300-2022</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45119.95995370371</v>
+        <v>44877</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19129,7 +19124,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -19166,14 +19161,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 58452-2021</t>
+          <t>A 27795-2024</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>44488</v>
+        <v>45475.55986111111</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19186,7 +19181,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -19223,14 +19218,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 58458-2021</t>
+          <t>A 50710-2023</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>44488</v>
+        <v>45217.56189814815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19243,7 +19238,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -19280,14 +19275,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 34738-2021</t>
+          <t>A 10330-2025</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>44382.66885416667</v>
+        <v>45720</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19300,7 +19295,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -19337,14 +19332,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 6226-2025</t>
+          <t>A 60679-2024</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45698.54723379629</v>
+        <v>45644.46246527778</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19357,7 +19352,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -19394,14 +19389,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 32238-2023</t>
+          <t>A 26329-2024</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45119.96327546296</v>
+        <v>45469</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19413,8 +19408,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G315" t="n">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -19451,14 +19451,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 36481-2023</t>
+          <t>A 15251-2024</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45152.72302083333</v>
+        <v>45400.53930555555</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>5.3</v>
+        <v>0.3</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19508,14 +19508,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 11887-2023</t>
+          <t>A 15587-2025</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>44995.43578703704</v>
+        <v>45747</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19528,7 +19528,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19565,14 +19565,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 9931-2024</t>
+          <t>A 21072-2025</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45363</v>
+        <v>45777.59802083333</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19585,7 +19585,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19622,14 +19622,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 60971-2022</t>
+          <t>A 21073-2025</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>44914.65731481482</v>
+        <v>45777.59881944444</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19642,7 +19642,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19679,14 +19679,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 50710-2023</t>
+          <t>A 22691-2025</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45217.56189814815</v>
+        <v>45789.53395833333</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19699,7 +19699,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19736,14 +19736,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 29408-2023</t>
+          <t>A 22842-2025</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45106</v>
+        <v>45790</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19793,14 +19793,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 32245-2023</t>
+          <t>A 52055-2024</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45119.99208333333</v>
+        <v>45608</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19850,14 +19850,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 32246-2023</t>
+          <t>A 14707-2025</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45120</v>
+        <v>45742.60814814815</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19907,14 +19907,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 32247-2023</t>
+          <t>A 15802-2023</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45120.00594907408</v>
+        <v>45021</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19964,14 +19964,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 32253-2023</t>
+          <t>A 10167-2024</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45120.05320601852</v>
+        <v>45364.6840162037</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -20021,14 +20021,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 4551-2025</t>
+          <t>A 12991-2025</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45687.41087962963</v>
+        <v>45734.48027777778</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20041,7 +20041,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -20078,14 +20078,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 31591-2022</t>
+          <t>A 26873-2025</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>44775.56290509259</v>
+        <v>45810</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -20135,14 +20135,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 2374-2024</t>
+          <t>A 26742-2025</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45310.62752314815</v>
+        <v>45810.52659722222</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>6.8</v>
+        <v>1.2</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -20192,14 +20192,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 21072-2025</t>
+          <t>A 26519-2025</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45777.59802083333</v>
+        <v>45807.56061342593</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -20249,14 +20249,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 21073-2025</t>
+          <t>A 27327-2025</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45777.59881944444</v>
+        <v>45812.60753472222</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>0.7</v>
+        <v>7.1</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -20306,14 +20306,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 22691-2025</t>
+          <t>A 26881-2025</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>45789.53395833333</v>
+        <v>45810.83994212963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>3</v>
+        <v>11.6</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -20363,14 +20363,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 22842-2025</t>
+          <t>A 27669-2025</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45790</v>
+        <v>45813.62425925926</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>1.3</v>
+        <v>7.2</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -20420,14 +20420,14 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 52055-2024</t>
+          <t>A 27732-2025</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45608</v>
+        <v>45814.71005787037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>

--- a/Översikt HABO.xlsx
+++ b/Översikt HABO.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z331"/>
+  <dimension ref="A1:Z332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45337</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>44390</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45742.61181712963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,14 +866,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 28832-2022</t>
+          <t>A 23272-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44749</v>
+        <v>45791.56258101852</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -886,19 +886,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -910,15 +910,104 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>5</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Borsttåg
+Slåtterfibbla
+Svinrot
+Fläcknycklar
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 23272-2025 artfynd.xlsx", "A 23272-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 23272-2025 karta.png", "A 23272-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 23272-2025 FSC-klagomål.docx", "A 23272-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 23272-2025 FSC-klagomål mail.docx", "A 23272-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 23272-2025 tillsynsbegäran.docx", "A 23272-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 23272-2025 tillsynsbegäran mail.docx", "A 23272-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 28832-2022</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44749</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HABO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Lakritsmusseron
 Motaggsvamp
@@ -927,92 +1016,92 @@
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 28832-2022 artfynd.xlsx", "A 28832-2022")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 28832-2022 karta.png", "A 28832-2022")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 28832-2022 FSC-klagomål.docx", "A 28832-2022")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 28832-2022 FSC-klagomål mail.docx", "A 28832-2022")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 28832-2022 tillsynsbegäran.docx", "A 28832-2022")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 28832-2022 tillsynsbegäran mail.docx", "A 28832-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>A 44444-2023</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>45183</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HABO</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="C7" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HABO</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G7" t="n">
         <v>9.5</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H7" t="n">
         <v>2</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>2</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K7" t="n">
         <v>3</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>5</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>3</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q7" t="n">
         <v>5</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Cypresslummer
 Mellanlummer
@@ -1021,120 +1110,31 @@
 Svartvit taggsvamp</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 44444-2023 artfynd.xlsx", "A 44444-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 44444-2023 karta.png", "A 44444-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 44444-2023 FSC-klagomål.docx", "A 44444-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 44444-2023 FSC-klagomål mail.docx", "A 44444-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 44444-2023 tillsynsbegäran.docx", "A 44444-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 44444-2023 tillsynsbegäran mail.docx", "A 44444-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 23272-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45791.56258101852</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HABO</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Borsttåg
-Slåtterfibbla
-Svinrot
-Fläcknycklar
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 23272-2025 artfynd.xlsx", "A 23272-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 23272-2025 karta.png", "A 23272-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 23272-2025 FSC-klagomål.docx", "A 23272-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 23272-2025 FSC-klagomål mail.docx", "A 23272-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 23272-2025 tillsynsbegäran.docx", "A 23272-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 23272-2025 tillsynsbegäran mail.docx", "A 23272-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44390</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>45810.83770833333</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>45534</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>45621.90853009259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>45419.38972222222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>45811</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1680,14 +1680,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 28842-2022</t>
+          <t>A 47199-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44749</v>
+        <v>45930</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1700,19 +1700,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1727,222 +1727,222 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>2</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
+          <t>Knärot
+Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 47199-2025 artfynd.xlsx", "A 47199-2025")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 47199-2025 karta.png", "A 47199-2025")</f>
+        <v/>
+      </c>
+      <c r="U14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/knärot/A 47199-2025 karta knärot.png", "A 47199-2025")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 47199-2025 FSC-klagomål.docx", "A 47199-2025")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 47199-2025 FSC-klagomål mail.docx", "A 47199-2025")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 47199-2025 tillsynsbegäran.docx", "A 47199-2025")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 47199-2025 tillsynsbegäran mail.docx", "A 47199-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 28842-2022</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44749</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>HABO</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Skrovlig taggsvamp
 Blomkålssvamp</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 28842-2022 artfynd.xlsx", "A 28842-2022")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 28842-2022 karta.png", "A 28842-2022")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 28842-2022 FSC-klagomål.docx", "A 28842-2022")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 28842-2022 FSC-klagomål mail.docx", "A 28842-2022")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 28842-2022 tillsynsbegäran.docx", "A 28842-2022")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 28842-2022 tillsynsbegäran mail.docx", "A 28842-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 58667-2024</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>45635.60858796296</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>HABO</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+      <c r="C16" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HABO</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>1.8</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>2</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>2</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>2</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp
 Vaddporing</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 58667-2024 artfynd.xlsx", "A 58667-2024")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 58667-2024 karta.png", "A 58667-2024")</f>
         <v/>
       </c>
-      <c r="U15">
+      <c r="U16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/knärot/A 58667-2024 karta knärot.png", "A 58667-2024")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 58667-2024 FSC-klagomål.docx", "A 58667-2024")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 58667-2024 FSC-klagomål mail.docx", "A 58667-2024")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 58667-2024 tillsynsbegäran.docx", "A 58667-2024")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 58667-2024 tillsynsbegäran mail.docx", "A 58667-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 47199-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45930</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HABO</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 47199-2025 artfynd.xlsx", "A 47199-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 47199-2025 karta.png", "A 47199-2025")</f>
-        <v/>
-      </c>
-      <c r="U16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/knärot/A 47199-2025 karta knärot.png", "A 47199-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 47199-2025 FSC-klagomål.docx", "A 47199-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 47199-2025 FSC-klagomål mail.docx", "A 47199-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 47199-2025 tillsynsbegäran.docx", "A 47199-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 47199-2025 tillsynsbegäran mail.docx", "A 47199-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>45106</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>45631.49844907408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>45635.6062037037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>45742.61011574074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>45742.60506944444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2374,14 +2374,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 53298-2022</t>
+          <t>A 26520-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44877</v>
+        <v>45807.56219907408</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2428,119 +2428,119 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
+          <t>Dunmossa</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 26520-2025 artfynd.xlsx", "A 26520-2025")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 26520-2025 karta.png", "A 26520-2025")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 26520-2025 FSC-klagomål.docx", "A 26520-2025")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 26520-2025 FSC-klagomål mail.docx", "A 26520-2025")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 26520-2025 tillsynsbegäran.docx", "A 26520-2025")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 26520-2025 tillsynsbegäran mail.docx", "A 26520-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 53298-2022</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>44877</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>HABO</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
           <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 53298-2022 artfynd.xlsx", "A 53298-2022")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 53298-2022 karta.png", "A 53298-2022")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 53298-2022 FSC-klagomål.docx", "A 53298-2022")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 53298-2022 FSC-klagomål mail.docx", "A 53298-2022")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 53298-2022 tillsynsbegäran.docx", "A 53298-2022")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 53298-2022 tillsynsbegäran mail.docx", "A 53298-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 26520-2025</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45807.56219907408</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>HABO</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Dunmossa</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/artfynd/A 26520-2025 artfynd.xlsx", "A 26520-2025")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/kartor/A 26520-2025 karta.png", "A 26520-2025")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomål/A 26520-2025 FSC-klagomål.docx", "A 26520-2025")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/klagomålsmail/A 26520-2025 FSC-klagomål mail.docx", "A 26520-2025")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsyn/A 26520-2025 tillsynsbegäran.docx", "A 26520-2025")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0643/tillsynsmail/A 26520-2025 tillsynsbegäran mail.docx", "A 26520-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>45597.48165509259</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>45882</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45635.58991898148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>45225</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>45534</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>45183</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44274</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44847.35423611111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>44853</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>44527</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44455.3859375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44769</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44260.38792824074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44824</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44846</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>44424.39243055556</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>44362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>44424.40524305555</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44693</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>44877.83546296296</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44693</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>44640</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>44424.39822916667</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44424.40296296297</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>44382</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44427.45282407408</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44670.58172453703</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44859</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44727</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44500</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44424</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44469.75280092593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>44623</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>44348.44641203704</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45475.55986111111</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45212</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>45683.76944444444</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4960,14 +4960,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 26212-2023</t>
+          <t>A 16509-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45091.55373842592</v>
+        <v>45029.6452662037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5017,14 +5017,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 16509-2023</t>
+          <t>A 26212-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45029.6452662037</v>
+        <v>45091.55373842592</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5081,7 +5081,7 @@
         <v>45660.48642361111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>45641.84190972222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>45698.54895833333</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>45636</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5302,14 +5302,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 37802-2024</t>
+          <t>A 4549-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45543.56393518519</v>
+        <v>45687.40525462963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5359,14 +5359,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 35779-2022</t>
+          <t>A 37802-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44801.57503472222</v>
+        <v>45543.56393518519</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5416,14 +5416,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 4549-2025</t>
+          <t>A 49849-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45687.40525462963</v>
+        <v>45597.4624537037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5433,6 +5433,11 @@
       <c r="E71" t="inlineStr">
         <is>
           <t>HABO</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -5473,14 +5478,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 30340-2023</t>
+          <t>A 16727-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45111.38814814815</v>
+        <v>45030</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5493,7 +5498,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5530,14 +5535,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 49849-2024</t>
+          <t>A 35779-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45597.4624537037</v>
+        <v>44801.57503472222</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5549,13 +5554,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5592,14 +5592,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 16727-2023</t>
+          <t>A 28685-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45030</v>
+        <v>45478.48681712963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5649,14 +5649,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 28685-2024</t>
+          <t>A 30340-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45478.48681712963</v>
+        <v>45111.38814814815</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5713,7 +5713,7 @@
         <v>45620.84238425926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5763,14 +5763,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 16108-2024</t>
+          <t>A 58452-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45406.46671296296</v>
+        <v>44488</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5820,14 +5820,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 55369-2024</t>
+          <t>A 22842-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45621.90494212963</v>
+        <v>45790</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5877,14 +5877,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 55370-2024</t>
+          <t>A 35115-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45621.90680555555</v>
+        <v>44384</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5934,14 +5934,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 55376-2024</t>
+          <t>A 55369-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45621.93943287037</v>
+        <v>45621.90494212963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5991,14 +5991,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 1004-2022</t>
+          <t>A 55370-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44571.60380787037</v>
+        <v>45621.90680555555</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.3</v>
+        <v>11.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6048,14 +6048,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 28825-2022</t>
+          <t>A 55376-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44749</v>
+        <v>45621.93943287037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6105,14 +6105,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 58452-2021</t>
+          <t>A 52055-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44488</v>
+        <v>45608</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6162,14 +6162,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 14707-2025</t>
+          <t>A 16108-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45742.60814814815</v>
+        <v>45406.46671296296</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6219,14 +6219,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 35115-2021</t>
+          <t>A 38749-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44384</v>
+        <v>45887.38887731481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>8.4</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6276,14 +6276,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 10167-2024</t>
+          <t>A 26364-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45364.6840162037</v>
+        <v>45806.33793981482</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6333,14 +6333,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 15802-2023</t>
+          <t>A 38759-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45021</v>
+        <v>45887.39712962963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6390,14 +6390,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 12991-2025</t>
+          <t>A 1004-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45734.48027777778</v>
+        <v>44571.60380787037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6447,14 +6447,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 27791-2024</t>
+          <t>A 28825-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45475.55299768518</v>
+        <v>44749</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6504,14 +6504,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 27794-2024</t>
+          <t>A 14707-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45475.55913194444</v>
+        <v>45742.60814814815</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6561,14 +6561,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 32331-2023</t>
+          <t>A 10167-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45120</v>
+        <v>45364.6840162037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6618,14 +6618,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 38749-2025</t>
+          <t>A 15802-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45887.38887731481</v>
+        <v>45021</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6675,14 +6675,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 35369-2023</t>
+          <t>A 12991-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45146.55858796297</v>
+        <v>45734.48027777778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6732,14 +6732,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 7419-2026</t>
+          <t>A 27791-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46059.42384259259</v>
+        <v>45475.55299768518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6789,14 +6789,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 26364-2025</t>
+          <t>A 27794-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45806.33793981482</v>
+        <v>45475.55913194444</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6846,14 +6846,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 38759-2025</t>
+          <t>A 32331-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45887.39712962963</v>
+        <v>45120</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6903,14 +6903,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 50804-2024</t>
+          <t>A 35369-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45602.50542824074</v>
+        <v>45146.55858796297</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.4</v>
+        <v>3.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6967,7 +6967,7 @@
         <v>45807.56061342593</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7017,14 +7017,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 55373-2024</t>
+          <t>A 40677-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45621.9333449074</v>
+        <v>45896.79884259259</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7074,14 +7074,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 26742-2025</t>
+          <t>A 40725-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45810.52659722222</v>
+        <v>45897.34652777778</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7131,14 +7131,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 32545-2022</t>
+          <t>A 26742-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44783.33467592593</v>
+        <v>45810.52659722222</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7150,13 +7150,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7193,14 +7188,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 26881-2025</t>
+          <t>A 50804-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45810.83994212963</v>
+        <v>45602.50542824074</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7213,7 +7208,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>11.6</v>
+        <v>0.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7250,14 +7245,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 26873-2025</t>
+          <t>A 26881-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45810</v>
+        <v>45810.83994212963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7270,7 +7265,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.8</v>
+        <v>11.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7307,14 +7302,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 27327-2025</t>
+          <t>A 26873-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45812.60753472222</v>
+        <v>45810</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7327,7 +7322,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>7.1</v>
+        <v>3.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7364,14 +7359,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 49446-2024</t>
+          <t>A 27327-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45595.95630787037</v>
+        <v>45812.60753472222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7384,7 +7379,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.1</v>
+        <v>7.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7421,14 +7416,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 49449-2024</t>
+          <t>A 41962-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45595.96761574074</v>
+        <v>45903.46984953704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7441,7 +7436,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7485,7 +7480,7 @@
         <v>45813.62425925926</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7535,14 +7530,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 16726-2023</t>
+          <t>A 55373-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45030.67268518519</v>
+        <v>45621.9333449074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7555,7 +7550,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7592,14 +7587,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 3710-2023</t>
+          <t>A 27732-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44951</v>
+        <v>45814.71005787037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7612,7 +7607,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7649,14 +7644,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 27732-2025</t>
+          <t>A 32545-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45814.71005787037</v>
+        <v>44783.33467592593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7668,8 +7663,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7706,14 +7706,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 35115-2021</t>
+          <t>A 49446-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44384</v>
+        <v>45595.95630787037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>8.4</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7763,14 +7763,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 49168-2023</t>
+          <t>A 49449-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45210.54012731482</v>
+        <v>45595.96761574074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7820,14 +7820,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 63922-2023</t>
+          <t>A 26932-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45278</v>
+        <v>45811</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7877,14 +7877,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 27796-2024</t>
+          <t>A 16726-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45475.56065972222</v>
+        <v>45030.67268518519</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7934,14 +7934,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 26932-2025</t>
+          <t>A 3710-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45811</v>
+        <v>44951</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>45820.45122685185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8048,14 +8048,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 30274-2025</t>
+          <t>A 35115-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45827.45424768519</v>
+        <v>44384</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.6</v>
+        <v>8.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8105,14 +8105,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 55368-2024</t>
+          <t>A 49168-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45621</v>
+        <v>45210.54012731482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8162,14 +8162,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 55372-2024</t>
+          <t>A 63922-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45621.93097222222</v>
+        <v>45278</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8219,14 +8219,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 55375-2024</t>
+          <t>A 24981-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45621.93724537037</v>
+        <v>45799.59719907407</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8276,14 +8276,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 30272-2025</t>
+          <t>A 25954-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45827.45251157408</v>
+        <v>45467.65891203703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8333,14 +8333,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 57360-2022</t>
+          <t>A 27796-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44896.42854166667</v>
+        <v>45475.56065972222</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8390,14 +8390,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 49855-2024</t>
+          <t>A 30274-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45597.468125</v>
+        <v>45827.45424768519</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8409,13 +8409,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8452,14 +8447,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 31597-2025</t>
+          <t>A 30272-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45833.71021990741</v>
+        <v>45827.45251157408</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8472,7 +8467,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8509,14 +8504,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 41622-2024</t>
+          <t>A 31597-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45560.60371527778</v>
+        <v>45833.71021990741</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8529,7 +8524,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8566,14 +8561,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 32278-2025</t>
+          <t>A 55368-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45835.66958333334</v>
+        <v>45621</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8586,7 +8581,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8623,14 +8618,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 29733-2023</t>
+          <t>A 55372-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45107.45170138889</v>
+        <v>45621.93097222222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8643,7 +8638,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8680,14 +8675,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 35574-2022</t>
+          <t>A 55375-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44799.41391203704</v>
+        <v>45621.93724537037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8737,14 +8732,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 31609-2025</t>
+          <t>A 57360-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45833.78055555555</v>
+        <v>44896.42854166667</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8757,7 +8752,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8794,14 +8789,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 40677-2025</t>
+          <t>A 49855-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45896.79884259259</v>
+        <v>45597.468125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8813,8 +8808,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8851,14 +8851,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 40725-2025</t>
+          <t>A 32278-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45897.34652777778</v>
+        <v>45835.66958333334</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8908,14 +8908,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 32539-2023</t>
+          <t>A 45321-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45121</v>
+        <v>45922.28649305556</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8965,14 +8965,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 36036-2023</t>
+          <t>A 31609-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45149.39180555556</v>
+        <v>45833.78055555555</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9022,14 +9022,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 28810-2022</t>
+          <t>A 5961-2026</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44749</v>
+        <v>46052.50719907408</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9079,14 +9079,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 28817-2022</t>
+          <t>A 6367-2026</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44749</v>
+        <v>46055.62700231482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>22.4</v>
+        <v>0.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9136,14 +9136,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 28821-2022</t>
+          <t>A 45322-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44749</v>
+        <v>45922.29103009259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9193,14 +9193,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 33706-2025</t>
+          <t>A 45818-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45841.78908564815</v>
+        <v>45923.59528935186</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9250,14 +9250,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 34452-2025</t>
+          <t>A 41622-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45846.86206018519</v>
+        <v>45560.60371527778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9307,14 +9307,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 58673-2024</t>
+          <t>A 29733-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45635.61019675926</v>
+        <v>45107.45170138889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9364,14 +9364,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 30350-2023</t>
+          <t>A 35574-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45111.39873842592</v>
+        <v>44799.41391203704</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9421,14 +9421,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 26882-2025</t>
+          <t>A 46551-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45810.84284722222</v>
+        <v>45926.34577546296</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9478,14 +9478,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 41962-2025</t>
+          <t>A 46589-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45903.46984953704</v>
+        <v>45926</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9535,14 +9535,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 26202-2023</t>
+          <t>A 33706-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45091.54733796296</v>
+        <v>45841.78908564815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9592,14 +9592,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 51016-2024</t>
+          <t>A 47773-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45603.40053240741</v>
+        <v>45931.72253472222</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9649,14 +9649,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 1915-2025</t>
+          <t>A 32539-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45671.66295138889</v>
+        <v>45121</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9706,14 +9706,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 28131-2023</t>
+          <t>A 34452-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45099</v>
+        <v>45846.86206018519</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9763,14 +9763,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 28140-2023</t>
+          <t>A 36036-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45099</v>
+        <v>45149.39180555556</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9820,14 +9820,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 26774-2024</t>
+          <t>A 28810-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45469</v>
+        <v>44749</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9877,14 +9877,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 61580-2024</t>
+          <t>A 28817-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45646</v>
+        <v>44749</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.1</v>
+        <v>22.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9934,14 +9934,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 63418-2023</t>
+          <t>A 28821-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45274</v>
+        <v>44749</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9991,14 +9991,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 3077-2024</t>
+          <t>A 26882-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45316.43134259259</v>
+        <v>45810.84284722222</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10048,14 +10048,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 16458-2025</t>
+          <t>A 48348-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45751.52873842593</v>
+        <v>45933.65431712963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.5</v>
+        <v>9.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10105,14 +10105,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 38779-2022</t>
+          <t>A 58673-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44816.42069444444</v>
+        <v>45635.61019675926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10162,14 +10162,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 45601-2022</t>
+          <t>A 30350-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44845.56953703704</v>
+        <v>45111.39873842592</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10219,14 +10219,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 6069-2025</t>
+          <t>A 26202-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45696.44892361111</v>
+        <v>45091.54733796296</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10276,14 +10276,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 37128-2025</t>
+          <t>A 51016-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45875.54210648148</v>
+        <v>45603.40053240741</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10333,14 +10333,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 24981-2025</t>
+          <t>A 1915-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45799.59719907407</v>
+        <v>45671.66295138889</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10390,14 +10390,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 37438-2025</t>
+          <t>A 28131-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45877.53517361111</v>
+        <v>45099</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10447,14 +10447,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 25954-2024</t>
+          <t>A 28140-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45467.65891203703</v>
+        <v>45099</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10504,14 +10504,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 17941-2025</t>
+          <t>A 26774-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45760.58021990741</v>
+        <v>45469</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10524,7 +10524,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10561,14 +10561,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 38065-2025</t>
+          <t>A 61580-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45882</v>
+        <v>45646</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10580,13 +10580,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10623,14 +10618,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 38125-2025</t>
+          <t>A 63418-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45882.55325231481</v>
+        <v>45274</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10643,7 +10638,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10680,14 +10675,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 54892-2021</t>
+          <t>A 16458-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44474.36921296296</v>
+        <v>45751.52873842593</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10700,7 +10695,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10737,14 +10732,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 38063-2025</t>
+          <t>A 3077-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45882</v>
+        <v>45316.43134259259</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10756,13 +10751,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>11.4</v>
+        <v>3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10799,14 +10789,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 38067-2025</t>
+          <t>A 37128-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45882</v>
+        <v>45875.54210648148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10818,13 +10808,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10861,14 +10846,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 38122-2025</t>
+          <t>A 37438-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45882.55258101852</v>
+        <v>45877.53517361111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10881,7 +10866,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10918,14 +10903,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 2780-2023</t>
+          <t>A 51447-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44944.65483796296</v>
+        <v>45950.5884375</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10938,7 +10923,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10975,14 +10960,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 48893-2024</t>
+          <t>A 51674-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45594.34168981481</v>
+        <v>45951.50398148148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10995,7 +10980,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11032,14 +11017,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 38069-2025</t>
+          <t>A 51676-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45882</v>
+        <v>45951.50607638889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11051,13 +11036,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>6.8</v>
+        <v>2.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11094,14 +11074,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 45321-2025</t>
+          <t>A 51446-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45922.28649305556</v>
+        <v>45950.58693287037</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11114,7 +11094,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11151,14 +11131,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 54987-2024</t>
+          <t>A 38065-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45620.8308912037</v>
+        <v>45882</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11170,8 +11150,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11208,14 +11193,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 10943-2022</t>
+          <t>A 38779-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44628</v>
+        <v>44816.42069444444</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11228,7 +11213,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11265,14 +11250,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 45322-2025</t>
+          <t>A 38125-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45922.29103009259</v>
+        <v>45882.55325231481</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11285,7 +11270,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11322,14 +11307,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 1876-2022</t>
+          <t>A 45601-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44575.29486111111</v>
+        <v>44845.56953703704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11342,7 +11327,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11379,14 +11364,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 45818-2025</t>
+          <t>A 38063-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45923.59528935186</v>
+        <v>45882</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11398,8 +11383,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>1.4</v>
+        <v>11.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11436,14 +11426,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 15516-2023</t>
+          <t>A 38067-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45020</v>
+        <v>45882</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11455,8 +11445,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11493,14 +11488,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 15518-2023</t>
+          <t>A 6069-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45020</v>
+        <v>45696.44892361111</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11513,7 +11508,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11550,14 +11545,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 46551-2025</t>
+          <t>A 38122-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45926.34577546296</v>
+        <v>45882.55258101852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11570,7 +11565,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11607,14 +11602,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 46589-2025</t>
+          <t>A 38069-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45926</v>
+        <v>45882</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11626,8 +11621,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>2.8</v>
+        <v>6.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11664,14 +11664,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 47773-2025</t>
+          <t>A 17941-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45931.72253472222</v>
+        <v>45760.58021990741</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11721,14 +11721,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 51588-2023</t>
+          <t>A 54892-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45222</v>
+        <v>44474.36921296296</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11778,14 +11778,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 40883-2023</t>
+          <t>A 7419-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45173.37297453704</v>
+        <v>46059.42384259259</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11835,14 +11835,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 48348-2025</t>
+          <t>A 55048-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45933.65431712963</v>
+        <v>45967.66598379629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>9.4</v>
+        <v>2.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11892,14 +11892,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 40638-2024</t>
+          <t>A 2780-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45558.29855324074</v>
+        <v>44944.65483796296</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11949,14 +11949,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 58668-2024</t>
+          <t>A 55647-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45635.6093287037</v>
+        <v>45972</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12006,14 +12006,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 56767-2022</t>
+          <t>A 48893-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44894</v>
+        <v>45594.34168981481</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12063,14 +12063,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 26329-2024</t>
+          <t>A 56266-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45469</v>
+        <v>45974.58144675926</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12082,13 +12082,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12125,14 +12120,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 28813-2022</t>
+          <t>A 54987-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44749</v>
+        <v>45620.8308912037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12145,7 +12140,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12182,14 +12177,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 28816-2022</t>
+          <t>A 10943-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44749</v>
+        <v>44628</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12202,7 +12197,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>5.2</v>
+        <v>0.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12239,14 +12234,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 16459-2025</t>
+          <t>A 1876-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45751.53125</v>
+        <v>44575.29486111111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12259,7 +12254,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12296,14 +12291,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 11075-2022</t>
+          <t>A 58526-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44628.6541087963</v>
+        <v>45985.72394675926</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12315,8 +12310,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>2.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12353,14 +12353,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 28135-2023</t>
+          <t>A 58527-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45099</v>
+        <v>45985.72804398148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12372,8 +12372,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12410,14 +12415,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 19370-2024</t>
+          <t>A 58528-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45429.34811342593</v>
+        <v>45985.73052083333</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12429,8 +12434,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12467,14 +12477,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 15252-2024</t>
+          <t>A 58158-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45400.54119212963</v>
+        <v>45982</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12487,7 +12497,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.2</v>
+        <v>3.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12524,14 +12534,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 44158-2023</t>
+          <t>A 15516-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45188.48688657407</v>
+        <v>45020</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12544,7 +12554,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12581,14 +12591,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 23152-2024</t>
+          <t>A 15518-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45450.65791666666</v>
+        <v>45020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12601,7 +12611,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12638,14 +12648,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 49846-2024</t>
+          <t>A 51588-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45597.45862268518</v>
+        <v>45222</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12657,13 +12667,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12700,14 +12705,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 7754-2025</t>
+          <t>A 40883-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45706.50554398148</v>
+        <v>45173.37297453704</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12720,7 +12725,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12757,14 +12762,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 51447-2025</t>
+          <t>A 40638-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45950.5884375</v>
+        <v>45558.29855324074</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12777,7 +12782,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12814,14 +12819,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 51674-2025</t>
+          <t>A 9016-2026</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45951.50398148148</v>
+        <v>46069.49152777778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12834,7 +12839,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12871,14 +12876,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 51676-2025</t>
+          <t>A 58668-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45951.50607638889</v>
+        <v>45635.6093287037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12891,7 +12896,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12928,14 +12933,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 51446-2025</t>
+          <t>A 56767-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45950.58693287037</v>
+        <v>44894</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12948,7 +12953,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12985,14 +12990,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 32252-2023</t>
+          <t>A 929-2026</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45120</v>
+        <v>46030.51197916667</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13042,14 +13047,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 28690-2024</t>
+          <t>A 26329-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45478.49003472222</v>
+        <v>45469</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13061,8 +13066,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>1.4</v>
+        <v>4.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13099,14 +13109,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 15517-2023</t>
+          <t>A 28813-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45020</v>
+        <v>44749</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13119,7 +13129,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13156,14 +13166,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 15587-2025</t>
+          <t>A 28816-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45747</v>
+        <v>44749</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13176,7 +13186,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.7</v>
+        <v>5.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13213,14 +13223,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 6230-2025</t>
+          <t>A 2681-2026</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45698.55018518519</v>
+        <v>46037.65422453704</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13233,7 +13243,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13270,14 +13280,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 6233-2025</t>
+          <t>A 2693-2026</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45698.55255787037</v>
+        <v>46037.66849537037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13290,7 +13300,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13327,14 +13337,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 35148-2022</t>
+          <t>A 2690-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44797</v>
+        <v>46037.66392361111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13347,7 +13357,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13384,14 +13394,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 55048-2025</t>
+          <t>A 16459-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45967.66598379629</v>
+        <v>45751.53125</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13404,7 +13414,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13441,14 +13451,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 60726-2022</t>
+          <t>A 11075-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44913.54509259259</v>
+        <v>44628.6541087963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13461,7 +13471,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13498,14 +13508,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 35626-2022</t>
+          <t>A 28135-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44799</v>
+        <v>45099</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13517,13 +13527,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13560,14 +13565,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 65067-2023</t>
+          <t>A 60583-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45287</v>
+        <v>45996</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13580,7 +13585,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.1</v>
+        <v>4.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13617,14 +13622,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 17845-2024</t>
+          <t>A 3282-2026</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45419.38777777777</v>
+        <v>46041.62421296296</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13637,7 +13642,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13674,14 +13679,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 55647-2025</t>
+          <t>A 19370-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45972</v>
+        <v>45429.34811342593</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13694,7 +13699,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13731,14 +13736,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 54288-2024</t>
+          <t>A 15252-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45617.27299768518</v>
+        <v>45400.54119212963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13751,7 +13756,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13788,14 +13793,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 56266-2025</t>
+          <t>A 44158-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45974.58144675926</v>
+        <v>45188.48688657407</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13808,7 +13813,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13845,14 +13850,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 16149-2025</t>
+          <t>A 23152-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45750.48006944444</v>
+        <v>45450.65791666666</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13865,7 +13870,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13902,14 +13907,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 62745-2023</t>
+          <t>A 49846-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45271</v>
+        <v>45597.45862268518</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13921,8 +13926,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13959,14 +13969,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 59440-2024</t>
+          <t>A 3794-2026</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45638.44335648148</v>
+        <v>46043.57814814815</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13979,7 +13989,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14016,14 +14026,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 58526-2025</t>
+          <t>A 7754-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45985.72394675926</v>
+        <v>45706.50554398148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14035,13 +14045,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>8.300000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14078,14 +14083,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 23148-2024</t>
+          <t>A 3778-2026</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45450.64201388889</v>
+        <v>46043.56719907407</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14098,7 +14103,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14135,14 +14140,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 23153-2024</t>
+          <t>A 61275-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45450.66217592593</v>
+        <v>46000.686875</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14155,7 +14160,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.9</v>
+        <v>0.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14192,14 +14197,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 58527-2025</t>
+          <t>A 61269-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45985.72804398148</v>
+        <v>46000.68230324074</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14211,13 +14216,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14254,14 +14254,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 58528-2025</t>
+          <t>A 61271-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45985.73052083333</v>
+        <v>46000.6846412037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14273,13 +14273,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14316,14 +14311,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 58158-2025</t>
+          <t>A 61273-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45982</v>
+        <v>46000.68589120371</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14336,7 +14331,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14373,14 +14368,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 45277-2024</t>
+          <t>A 3783-2026</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45576.36799768519</v>
+        <v>46043.57157407407</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14393,7 +14388,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14430,14 +14425,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 43160-2023</t>
+          <t>A 3787-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45183.34355324074</v>
+        <v>46043.57262731482</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14450,7 +14445,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14487,14 +14482,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 62764-2023</t>
+          <t>A 32252-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45271.64642361111</v>
+        <v>45120</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14507,7 +14502,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14544,14 +14539,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 53264-2022</t>
+          <t>A 3775-2026</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44876</v>
+        <v>46043.56471064815</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14564,7 +14559,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14601,14 +14596,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 929-2026</t>
+          <t>A 3792-2026</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>46030.51197916667</v>
+        <v>46043.57667824074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14621,7 +14616,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14658,14 +14653,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 56289-2023</t>
+          <t>A 28690-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45242.38527777778</v>
+        <v>45478.49003472222</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14677,13 +14672,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14720,14 +14710,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 41910-2022</t>
+          <t>A 15517-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44830</v>
+        <v>45020</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14740,7 +14730,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>7.6</v>
+        <v>1.3</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14777,14 +14767,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 2861-2025</t>
+          <t>A 15587-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45677.67138888889</v>
+        <v>45747</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14797,7 +14787,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14834,14 +14824,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 51027-2023</t>
+          <t>A 6230-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45218.6069212963</v>
+        <v>45698.55018518519</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14854,7 +14844,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14891,14 +14881,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 47532-2023</t>
+          <t>A 6233-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45203.35952546296</v>
+        <v>45698.55255787037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14911,7 +14901,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14948,14 +14938,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 2681-2026</t>
+          <t>A 35148-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>46037.65422453704</v>
+        <v>44797</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14968,7 +14958,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15005,14 +14995,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 57755-2023</t>
+          <t>A 60726-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45246.79193287037</v>
+        <v>44913.54509259259</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15025,7 +15015,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15062,14 +15052,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 2693-2026</t>
+          <t>A 35626-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>46037.66849537037</v>
+        <v>44799</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15081,8 +15071,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15119,14 +15114,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 59433-2024</t>
+          <t>A 65067-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45638.42907407408</v>
+        <v>45287</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15139,7 +15134,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>10.4</v>
+        <v>2.1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15176,14 +15171,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 2690-2026</t>
+          <t>A 17845-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>46037.66392361111</v>
+        <v>45419.38777777777</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15196,7 +15191,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15233,14 +15228,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 12606-2025</t>
+          <t>A 54288-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45733.31362268519</v>
+        <v>45617.27299768518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15253,7 +15248,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15290,14 +15285,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 60583-2025</t>
+          <t>A 16149-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45996</v>
+        <v>45750.48006944444</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15310,7 +15305,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>4.7</v>
+        <v>0.7</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15347,14 +15342,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 3282-2026</t>
+          <t>A 62745-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>46041.62421296296</v>
+        <v>45271</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15367,7 +15362,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15404,14 +15399,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 48894-2024</t>
+          <t>A 59440-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45594.34311342592</v>
+        <v>45638.44335648148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15461,14 +15456,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 3794-2026</t>
+          <t>A 23148-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>46043.57814814815</v>
+        <v>45450.64201388889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15518,14 +15513,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 49447-2024</t>
+          <t>A 23153-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45595.96028935185</v>
+        <v>45450.66217592593</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15538,7 +15533,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15575,14 +15570,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 3778-2026</t>
+          <t>A 45277-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>46043.56719907407</v>
+        <v>45576.36799768519</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15595,7 +15590,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15632,14 +15627,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 61275-2025</t>
+          <t>A 43160-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>46000.686875</v>
+        <v>45183.34355324074</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15652,7 +15647,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15689,14 +15684,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 26711-2024</t>
+          <t>A 62764-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45470.40313657407</v>
+        <v>45271.64642361111</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15709,7 +15704,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15746,14 +15741,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 54989-2024</t>
+          <t>A 53264-2022</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45620.84454861111</v>
+        <v>44876</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15766,7 +15761,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15803,14 +15798,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 54990-2024</t>
+          <t>A 56289-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45620.8468287037</v>
+        <v>45242.38527777778</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15822,8 +15817,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G252" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15860,14 +15860,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 61269-2025</t>
+          <t>A 41910-2022</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>46000.68230324074</v>
+        <v>44830</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.9</v>
+        <v>7.6</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15917,14 +15917,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 61271-2025</t>
+          <t>A 2861-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>46000.6846412037</v>
+        <v>45677.67138888889</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15974,14 +15974,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 61273-2025</t>
+          <t>A 51027-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>46000.68589120371</v>
+        <v>45218.6069212963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16031,14 +16031,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 3783-2026</t>
+          <t>A 47532-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>46043.57157407407</v>
+        <v>45203.35952546296</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16088,14 +16088,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 3787-2026</t>
+          <t>A 57755-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>46043.57262731482</v>
+        <v>45246.79193287037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16145,14 +16145,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 17294-2025</t>
+          <t>A 59433-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45756.5894675926</v>
+        <v>45638.42907407408</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>4.2</v>
+        <v>10.4</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16202,14 +16202,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 3775-2026</t>
+          <t>A 12606-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>46043.56471064815</v>
+        <v>45733.31362268519</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16259,14 +16259,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 3792-2026</t>
+          <t>A 48894-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>46043.57667824074</v>
+        <v>45594.34311342592</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16316,14 +16316,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 23145-2024</t>
+          <t>A 49447-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45450.63736111111</v>
+        <v>45595.96028935185</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16373,14 +16373,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 23156-2024</t>
+          <t>A 26711-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45450.6659375</v>
+        <v>45470.40313657407</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>7.5</v>
+        <v>0.6</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16430,14 +16430,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 15251-2024</t>
+          <t>A 54989-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45400.53930555555</v>
+        <v>45620.84454861111</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16487,14 +16487,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 4957-2025</t>
+          <t>A 54990-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45689.57192129629</v>
+        <v>45620.8468287037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16544,14 +16544,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 12999-2025</t>
+          <t>A 17294-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45734.49229166667</v>
+        <v>45756.5894675926</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16601,14 +16601,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 5961-2026</t>
+          <t>A 23145-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>46052.50719907408</v>
+        <v>45450.63736111111</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16658,14 +16658,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 6367-2026</t>
+          <t>A 23156-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>46055.62700231482</v>
+        <v>45450.6659375</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.9</v>
+        <v>7.5</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16715,14 +16715,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 476-2024</t>
+          <t>A 15251-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45297.8840625</v>
+        <v>45400.53930555555</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>3.1</v>
+        <v>0.3</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16772,14 +16772,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 59439-2024</t>
+          <t>A 4957-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45638.43947916666</v>
+        <v>45689.57192129629</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16829,14 +16829,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 30863-2023</t>
+          <t>A 12999-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45113</v>
+        <v>45734.49229166667</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16886,14 +16886,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 40280-2024</t>
+          <t>A 476-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45554</v>
+        <v>45297.8840625</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>6.9</v>
+        <v>3.1</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16943,14 +16943,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 54693-2023</t>
+          <t>A 59439-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45236.28766203704</v>
+        <v>45638.43947916666</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17000,14 +17000,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 51444-2023</t>
+          <t>A 30863-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45220.40077546296</v>
+        <v>45113</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17057,14 +17057,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 8849-2024</t>
+          <t>A 40280-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45356.85099537037</v>
+        <v>45554</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2</v>
+        <v>6.9</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17114,14 +17114,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 54270-2024</t>
+          <t>A 54693-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45616.81366898148</v>
+        <v>45236.28766203704</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.5</v>
+        <v>5.3</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17171,14 +17171,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 679-2025</t>
+          <t>A 51444-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45664.84519675926</v>
+        <v>45220.40077546296</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17228,14 +17228,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 2073-2023</t>
+          <t>A 8849-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44939</v>
+        <v>45356.85099537037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17285,14 +17285,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 11906-2023</t>
+          <t>A 54270-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44995</v>
+        <v>45616.81366898148</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17342,14 +17342,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 26207-2023</t>
+          <t>A 679-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45091.55079861111</v>
+        <v>45664.84519675926</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17399,14 +17399,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 53300-2022</t>
+          <t>A 2073-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44877</v>
+        <v>44939</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>2.2</v>
+        <v>4.3</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17456,14 +17456,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 14724-2024</t>
+          <t>A 11906-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45397</v>
+        <v>44995</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17513,14 +17513,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 1699-2024</t>
+          <t>A 26207-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45307</v>
+        <v>45091.55079861111</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17570,14 +17570,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 46062-2024</t>
+          <t>A 53300-2022</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45580.94521990741</v>
+        <v>44877</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17627,14 +17627,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 13880-2023</t>
+          <t>A 14724-2024</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45007</v>
+        <v>45397</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17684,14 +17684,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 36483-2023</t>
+          <t>A 1699-2024</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45152.73112268518</v>
+        <v>45307</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17741,14 +17741,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 31909-2024</t>
+          <t>A 46062-2024</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45510.35284722222</v>
+        <v>45580.94521990741</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17798,14 +17798,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 45275-2024</t>
+          <t>A 13880-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45576.36652777778</v>
+        <v>45007</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17855,14 +17855,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 58666-2024</t>
+          <t>A 36483-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45635.60771990741</v>
+        <v>45152.73112268518</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17912,14 +17912,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 57422-2023</t>
+          <t>A 31909-2024</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45246</v>
+        <v>45510.35284722222</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17969,14 +17969,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 35775-2022</t>
+          <t>A 45275-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>44801.56965277778</v>
+        <v>45576.36652777778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -18026,14 +18026,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 10330-2025</t>
+          <t>A 58666-2024</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45720</v>
+        <v>45635.60771990741</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -18083,14 +18083,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 17519-2025</t>
+          <t>A 57422-2023</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45757.57725694445</v>
+        <v>45246</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -18140,14 +18140,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 17520-2025</t>
+          <t>A 35775-2022</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45757.57844907408</v>
+        <v>44801.56965277778</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18160,7 +18160,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -18197,14 +18197,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 47836-2023</t>
+          <t>A 10330-2025</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45204.37240740741</v>
+        <v>45720</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>4.8</v>
+        <v>1.7</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -18254,14 +18254,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 49448-2024</t>
+          <t>A 17519-2025</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45595.96385416666</v>
+        <v>45757.57725694445</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18274,7 +18274,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -18311,14 +18311,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 13850-2024</t>
+          <t>A 17520-2025</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45390</v>
+        <v>45757.57844907408</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18331,7 +18331,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>4.6</v>
+        <v>1.7</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18368,14 +18368,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 57999-2024</t>
+          <t>A 47836-2023</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45631.63677083333</v>
+        <v>45204.37240740741</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18425,14 +18425,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 59928-2022</t>
+          <t>A 49448-2024</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>44909.34195601852</v>
+        <v>45595.96385416666</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18482,14 +18482,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 11426-2024</t>
+          <t>A 13850-2024</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45372.50304398148</v>
+        <v>45390</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18539,14 +18539,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 61665-2024</t>
+          <t>A 57999-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45647.29790509259</v>
+        <v>45631.63677083333</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18559,7 +18559,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18596,14 +18596,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 58430-2021</t>
+          <t>A 59928-2022</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>44488</v>
+        <v>44909.34195601852</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18616,7 +18616,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18653,14 +18653,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 59057-2024</t>
+          <t>A 11426-2024</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45636</v>
+        <v>45372.50304398148</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18673,7 +18673,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18710,14 +18710,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 40575-2021</t>
+          <t>A 61665-2024</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>44420</v>
+        <v>45647.29790509259</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18730,7 +18730,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18767,14 +18767,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 49433-2024</t>
+          <t>A 58430-2021</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45595.82958333333</v>
+        <v>44488</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18787,7 +18787,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18824,14 +18824,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 60679-2024</t>
+          <t>A 59057-2024</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45644.46246527778</v>
+        <v>45636</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18844,7 +18844,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18881,14 +18881,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 32329-2023</t>
+          <t>A 40575-2021</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45120</v>
+        <v>44420</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18901,7 +18901,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18938,14 +18938,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 32235-2023</t>
+          <t>A 49433-2024</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45119.95571759259</v>
+        <v>45595.82958333333</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18958,7 +18958,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>7.1</v>
+        <v>5</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18995,14 +18995,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 32236-2023</t>
+          <t>A 60679-2024</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45119.95995370371</v>
+        <v>45644.46246527778</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19015,7 +19015,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -19052,14 +19052,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 58452-2021</t>
+          <t>A 32329-2023</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>44488</v>
+        <v>45120</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -19109,14 +19109,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 58458-2021</t>
+          <t>A 32235-2023</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>44488</v>
+        <v>45119.95571759259</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19129,7 +19129,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>1.5</v>
+        <v>7.1</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -19166,14 +19166,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 34738-2021</t>
+          <t>A 32236-2023</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>44382.66885416667</v>
+        <v>45119.95995370371</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -19223,14 +19223,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 6226-2025</t>
+          <t>A 58452-2021</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45698.54723379629</v>
+        <v>44488</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -19280,14 +19280,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 32238-2023</t>
+          <t>A 58458-2021</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45119.96327546296</v>
+        <v>44488</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19300,7 +19300,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -19337,14 +19337,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 36481-2023</t>
+          <t>A 34738-2021</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45152.72302083333</v>
+        <v>44382.66885416667</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19357,7 +19357,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -19394,14 +19394,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 11887-2023</t>
+          <t>A 6226-2025</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>44995.43578703704</v>
+        <v>45698.54723379629</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19414,7 +19414,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -19451,14 +19451,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 9931-2024</t>
+          <t>A 32238-2023</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45363</v>
+        <v>45119.96327546296</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19508,14 +19508,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 60971-2022</t>
+          <t>A 36481-2023</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>44914.65731481482</v>
+        <v>45152.72302083333</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19528,7 +19528,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19565,14 +19565,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 50710-2023</t>
+          <t>A 11887-2023</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45217.56189814815</v>
+        <v>44995.43578703704</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19585,7 +19585,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19622,14 +19622,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 29408-2023</t>
+          <t>A 9931-2024</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45106</v>
+        <v>45363</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19642,7 +19642,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19679,14 +19679,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 32245-2023</t>
+          <t>A 60971-2022</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45119.99208333333</v>
+        <v>44914.65731481482</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19699,7 +19699,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19736,14 +19736,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 32246-2023</t>
+          <t>A 50710-2023</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45120</v>
+        <v>45217.56189814815</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19793,14 +19793,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 32247-2023</t>
+          <t>A 29408-2023</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45120.00594907408</v>
+        <v>45106</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19850,14 +19850,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 32253-2023</t>
+          <t>A 32245-2023</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45120.05320601852</v>
+        <v>45119.99208333333</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19907,14 +19907,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 4551-2025</t>
+          <t>A 32246-2023</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45687.41087962963</v>
+        <v>45120</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19964,14 +19964,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 31591-2022</t>
+          <t>A 32247-2023</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>44775.56290509259</v>
+        <v>45120.00594907408</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -20021,14 +20021,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 2374-2024</t>
+          <t>A 32253-2023</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45310.62752314815</v>
+        <v>45120.05320601852</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20041,7 +20041,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>6.8</v>
+        <v>2.9</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -20078,14 +20078,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 21072-2025</t>
+          <t>A 4551-2025</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45777.59802083333</v>
+        <v>45687.41087962963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -20135,14 +20135,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 21073-2025</t>
+          <t>A 31591-2022</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45777.59881944444</v>
+        <v>44775.56290509259</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -20192,14 +20192,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 22691-2025</t>
+          <t>A 2374-2024</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45789.53395833333</v>
+        <v>45310.62752314815</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>3</v>
+        <v>6.8</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -20249,14 +20249,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 22842-2025</t>
+          <t>A 21072-2025</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45790</v>
+        <v>45777.59802083333</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20303,17 +20303,17 @@
       </c>
       <c r="R330" s="2" t="inlineStr"/>
     </row>
-    <row r="331">
+    <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 52055-2024</t>
+          <t>A 21073-2025</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>45608</v>
+        <v>45777.59881944444</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -20359,6 +20359,63 @@
         <v>0</v>
       </c>
       <c r="R331" s="2" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>A 22691-2025</t>
+        </is>
+      </c>
+      <c r="B332" s="1" t="n">
+        <v>45789.53395833333</v>
+      </c>
+      <c r="C332" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>HABO</t>
+        </is>
+      </c>
+      <c r="G332" t="n">
+        <v>3</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="n">
+        <v>0</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L332" t="n">
+        <v>0</v>
+      </c>
+      <c r="M332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N332" t="n">
+        <v>0</v>
+      </c>
+      <c r="O332" t="n">
+        <v>0</v>
+      </c>
+      <c r="P332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R332" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HABO.xlsx
+++ b/Översikt HABO.xlsx
@@ -575,7 +575,7 @@
         <v>45337</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>44390</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45742.61181712963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>45791.56258101852</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>44749</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>45183</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44390</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>45810.83770833333</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>45534</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>45621.90853009259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>45419.38972222222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>45811</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45930</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>44749</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>45635.60858796296</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>45106</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>45631.49844907408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>45635.6062037037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>45742.61011574074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>45742.60506944444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>45807.56219907408</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44877</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>45597.48165509259</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>45882</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45635.58991898148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>45225</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>45534</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>45183</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44274</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44847.35423611111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>44853</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>44527</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44455.3859375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44769</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44260.38792824074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44824</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44846</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>44424.39243055556</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>44362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>44424.40524305555</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44693</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>44877.83546296296</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44693</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>44640</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>44424.39822916667</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44424.40296296297</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>44382</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44427.45282407408</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44670.58172453703</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44859</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44727</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44500</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44424</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44469.75280092593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>44623</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>44348.44641203704</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45475.55986111111</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45212</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>45683.76944444444</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4960,14 +4960,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 16509-2023</t>
+          <t>A 26212-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45029.6452662037</v>
+        <v>45091.55373842592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5017,14 +5017,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 26212-2023</t>
+          <t>A 272-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45091.55373842592</v>
+        <v>45660.48642361111</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5074,14 +5074,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 272-2025</t>
+          <t>A 16509-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45660.48642361111</v>
+        <v>45029.6452662037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>45641.84190972222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>45698.54895833333</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5245,14 +5245,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 59058-2024</t>
+          <t>A 38069-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45636</v>
+        <v>45882</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5264,8 +5264,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>0.4</v>
+        <v>6.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5302,14 +5307,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 4549-2025</t>
+          <t>A 22691-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45687.40525462963</v>
+        <v>45789.53395833333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5322,7 +5327,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5359,14 +5364,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 37802-2024</t>
+          <t>A 58452-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45543.56393518519</v>
+        <v>44488</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5379,7 +5384,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5416,14 +5421,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 49849-2024</t>
+          <t>A 59058-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45597.4624537037</v>
+        <v>45636</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5435,13 +5440,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5478,14 +5478,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 16727-2023</t>
+          <t>A 35115-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45030</v>
+        <v>44384</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.2</v>
+        <v>8.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5535,14 +5535,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 35779-2022</t>
+          <t>A 38749-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44801.57503472222</v>
+        <v>45887.38887731481</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5592,14 +5592,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 28685-2024</t>
+          <t>A 37802-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45478.48681712963</v>
+        <v>45543.56393518519</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5649,14 +5649,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 30340-2023</t>
+          <t>A 35779-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45111.38814814815</v>
+        <v>44801.57503472222</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5706,14 +5706,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 54988-2024</t>
+          <t>A 26364-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45620.84238425926</v>
+        <v>45806.33793981482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5763,14 +5763,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 58452-2021</t>
+          <t>A 22842-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44488</v>
+        <v>45790</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5820,14 +5820,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 22842-2025</t>
+          <t>A 38759-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45790</v>
+        <v>45887.39712962963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5877,14 +5877,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 35115-2021</t>
+          <t>A 30340-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44384</v>
+        <v>45111.38814814815</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>8.4</v>
+        <v>2.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5934,14 +5934,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 55369-2024</t>
+          <t>A 55647-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45621.90494212963</v>
+        <v>45972</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.5</v>
+        <v>0.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5991,14 +5991,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 55370-2024</t>
+          <t>A 4549-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45621.90680555555</v>
+        <v>45687.40525462963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>11.5</v>
+        <v>0.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6048,14 +6048,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 55376-2024</t>
+          <t>A 52055-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45621.93943287037</v>
+        <v>45608</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6105,14 +6105,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 52055-2024</t>
+          <t>A 49849-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45608</v>
+        <v>45597.4624537037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6124,8 +6124,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6162,14 +6167,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 16108-2024</t>
+          <t>A 16727-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45406.46671296296</v>
+        <v>45030</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6182,7 +6187,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6219,14 +6224,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 38749-2025</t>
+          <t>A 56266-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45887.38887731481</v>
+        <v>45974.58144675926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6239,7 +6244,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6276,14 +6281,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 26364-2025</t>
+          <t>A 28685-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45806.33793981482</v>
+        <v>45478.48681712963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6296,7 +6301,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6333,14 +6338,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 38759-2025</t>
+          <t>A 54988-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45887.39712962963</v>
+        <v>45620.84238425926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6353,7 +6358,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6390,14 +6395,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 1004-2022</t>
+          <t>A 55369-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44571.60380787037</v>
+        <v>45621.90494212963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6410,7 +6415,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6447,14 +6452,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 28825-2022</t>
+          <t>A 55370-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44749</v>
+        <v>45621.90680555555</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6467,7 +6472,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.7</v>
+        <v>11.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6504,14 +6509,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 14707-2025</t>
+          <t>A 55376-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45742.60814814815</v>
+        <v>45621.93943287037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6524,7 +6529,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6561,14 +6566,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 10167-2024</t>
+          <t>A 16108-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45364.6840162037</v>
+        <v>45406.46671296296</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6581,7 +6586,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6618,14 +6623,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 15802-2023</t>
+          <t>A 14707-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45021</v>
+        <v>45742.60814814815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6638,7 +6643,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6675,14 +6680,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 12991-2025</t>
+          <t>A 10167-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45734.48027777778</v>
+        <v>45364.6840162037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6695,7 +6700,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6732,14 +6737,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 27791-2024</t>
+          <t>A 15802-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45475.55299768518</v>
+        <v>45021</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6752,7 +6757,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6789,14 +6794,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 27794-2024</t>
+          <t>A 12991-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45475.55913194444</v>
+        <v>45734.48027777778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6846,14 +6851,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 32331-2023</t>
+          <t>A 1004-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45120</v>
+        <v>44571.60380787037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6866,7 +6871,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6903,14 +6908,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 35369-2023</t>
+          <t>A 28825-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45146.55858796297</v>
+        <v>44749</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6923,7 +6928,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6960,14 +6965,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 26519-2025</t>
+          <t>A 40677-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45807.56061342593</v>
+        <v>45896.79884259259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6980,7 +6985,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7017,14 +7022,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 40677-2025</t>
+          <t>A 40725-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45896.79884259259</v>
+        <v>45897.34652777778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7037,7 +7042,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7074,14 +7079,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 40725-2025</t>
+          <t>A 27791-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45897.34652777778</v>
+        <v>45475.55299768518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7094,7 +7099,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7131,14 +7136,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 26742-2025</t>
+          <t>A 27794-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45810.52659722222</v>
+        <v>45475.55913194444</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7151,7 +7156,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7188,14 +7193,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 50804-2024</t>
+          <t>A 41962-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45602.50542824074</v>
+        <v>45903.46984953704</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7208,7 +7213,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7245,14 +7250,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 26881-2025</t>
+          <t>A 32331-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45810.83994212963</v>
+        <v>45120</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7265,7 +7270,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>11.6</v>
+        <v>1.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7302,14 +7307,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 26873-2025</t>
+          <t>A 26519-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45810</v>
+        <v>45807.56061342593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7322,7 +7327,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7359,14 +7364,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 27327-2025</t>
+          <t>A 26742-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45812.60753472222</v>
+        <v>45810.52659722222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7379,7 +7384,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>7.1</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7416,14 +7421,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 41962-2025</t>
+          <t>A 35369-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45903.46984953704</v>
+        <v>45146.55858796297</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7436,7 +7441,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7473,14 +7478,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 27669-2025</t>
+          <t>A 26881-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45813.62425925926</v>
+        <v>45810.83994212963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7493,7 +7498,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>7.2</v>
+        <v>11.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7530,14 +7535,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 55373-2024</t>
+          <t>A 26873-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45621.9333449074</v>
+        <v>45810</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7550,7 +7555,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7587,14 +7592,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 27732-2025</t>
+          <t>A 50804-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45814.71005787037</v>
+        <v>45602.50542824074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7607,7 +7612,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7644,14 +7649,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 32545-2022</t>
+          <t>A 27327-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44783.33467592593</v>
+        <v>45812.60753472222</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7663,13 +7668,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>7.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7706,14 +7706,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 49446-2024</t>
+          <t>A 27669-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45595.95630787037</v>
+        <v>45813.62425925926</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.1</v>
+        <v>7.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7763,14 +7763,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 49449-2024</t>
+          <t>A 24981-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45595.96761574074</v>
+        <v>45799.59719907407</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7820,14 +7820,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 26932-2025</t>
+          <t>A 25954-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45811</v>
+        <v>45467.65891203703</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7877,14 +7877,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 16726-2023</t>
+          <t>A 27732-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45030.67268518519</v>
+        <v>45814.71005787037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7934,14 +7934,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 3710-2023</t>
+          <t>A 55373-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44951</v>
+        <v>45621.9333449074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7991,14 +7991,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 28780-2025</t>
+          <t>A 58526-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45820.45122685185</v>
+        <v>45985.72394675926</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8010,8 +8010,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>2.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8048,14 +8053,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 35115-2021</t>
+          <t>A 32545-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44384</v>
+        <v>44783.33467592593</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8067,8 +8072,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>8.4</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8105,14 +8115,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 49168-2023</t>
+          <t>A 26932-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45210.54012731482</v>
+        <v>45811</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8125,7 +8135,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8162,14 +8172,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 63922-2023</t>
+          <t>A 49446-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45278</v>
+        <v>45595.95630787037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8182,7 +8192,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8219,14 +8229,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 24981-2025</t>
+          <t>A 49449-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45799.59719907407</v>
+        <v>45595.96761574074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8239,7 +8249,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8276,14 +8286,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 25954-2024</t>
+          <t>A 28780-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45467.65891203703</v>
+        <v>45820.45122685185</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8296,7 +8306,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8333,14 +8343,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 27796-2024</t>
+          <t>A 16726-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45475.56065972222</v>
+        <v>45030.67268518519</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8353,7 +8363,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8390,14 +8400,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 30274-2025</t>
+          <t>A 3710-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45827.45424768519</v>
+        <v>44951</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8410,7 +8420,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8447,14 +8457,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 30272-2025</t>
+          <t>A 45321-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45827.45251157408</v>
+        <v>45922.28649305556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8467,7 +8477,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8504,14 +8514,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 31597-2025</t>
+          <t>A 35115-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45833.71021990741</v>
+        <v>44384</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8524,7 +8534,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.7</v>
+        <v>8.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8561,14 +8571,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 55368-2024</t>
+          <t>A 49168-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45621</v>
+        <v>45210.54012731482</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8581,7 +8591,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8618,14 +8628,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 55372-2024</t>
+          <t>A 63922-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45621.93097222222</v>
+        <v>45278</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8638,7 +8648,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8675,14 +8685,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 55375-2024</t>
+          <t>A 45322-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45621.93724537037</v>
+        <v>45922.29103009259</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8695,7 +8705,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8732,14 +8742,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 57360-2022</t>
+          <t>A 58527-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44896.42854166667</v>
+        <v>45985.72804398148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8751,8 +8761,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8789,14 +8804,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 49855-2024</t>
+          <t>A 58528-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45597.468125</v>
+        <v>45985.73052083333</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8814,7 +8829,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8851,14 +8866,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 32278-2025</t>
+          <t>A 45818-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45835.66958333334</v>
+        <v>45923.59528935186</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8871,7 +8886,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8908,14 +8923,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 45321-2025</t>
+          <t>A 30274-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45922.28649305556</v>
+        <v>45827.45424768519</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8928,7 +8943,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8965,14 +8980,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 31609-2025</t>
+          <t>A 27796-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45833.78055555555</v>
+        <v>45475.56065972222</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8985,7 +9000,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9022,14 +9037,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 5961-2026</t>
+          <t>A 30272-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>46052.50719907408</v>
+        <v>45827.45251157408</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9042,7 +9057,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9079,14 +9094,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 6367-2026</t>
+          <t>A 58158-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46055.62700231482</v>
+        <v>45982</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9099,7 +9114,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9136,14 +9151,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 45322-2025</t>
+          <t>A 46551-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45922.29103009259</v>
+        <v>45926.34577546296</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9156,7 +9171,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9193,14 +9208,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 45818-2025</t>
+          <t>A 31597-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45923.59528935186</v>
+        <v>45833.71021990741</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9213,7 +9228,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9250,14 +9265,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 41622-2024</t>
+          <t>A 46589-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45560.60371527778</v>
+        <v>45926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9270,7 +9285,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9307,14 +9322,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 29733-2023</t>
+          <t>A 55368-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45107.45170138889</v>
+        <v>45621</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9327,7 +9342,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.3</v>
+        <v>4.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9364,14 +9379,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 35574-2022</t>
+          <t>A 55372-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44799.41391203704</v>
+        <v>45621.93097222222</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9384,7 +9399,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9421,14 +9436,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 46551-2025</t>
+          <t>A 55375-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45926.34577546296</v>
+        <v>45621.93724537037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9441,7 +9456,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9478,14 +9493,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 46589-2025</t>
+          <t>A 57360-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45926</v>
+        <v>44896.42854166667</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9498,7 +9513,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9535,14 +9550,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 33706-2025</t>
+          <t>A 49855-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45841.78908564815</v>
+        <v>45597.468125</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9552,6 +9567,11 @@
       <c r="E143" t="inlineStr">
         <is>
           <t>HABO</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G143" t="n">
@@ -9599,7 +9619,7 @@
         <v>45931.72253472222</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9649,14 +9669,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 32539-2023</t>
+          <t>A 32278-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45121</v>
+        <v>45835.66958333334</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9669,7 +9689,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9706,14 +9726,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 34452-2025</t>
+          <t>A 31609-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45846.86206018519</v>
+        <v>45833.78055555555</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9726,7 +9746,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9763,14 +9783,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 36036-2023</t>
+          <t>A 48348-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45149.39180555556</v>
+        <v>45933.65431712963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9783,7 +9803,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.5</v>
+        <v>9.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9820,14 +9840,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 28810-2022</t>
+          <t>A 41622-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44749</v>
+        <v>45560.60371527778</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9840,7 +9860,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9877,14 +9897,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 28817-2022</t>
+          <t>A 29733-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44749</v>
+        <v>45107.45170138889</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9897,7 +9917,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>22.4</v>
+        <v>0.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9934,14 +9954,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 28821-2022</t>
+          <t>A 35574-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44749</v>
+        <v>44799.41391203704</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9954,7 +9974,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9991,14 +10011,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 26882-2025</t>
+          <t>A 32539-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45810.84284722222</v>
+        <v>45121</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10011,7 +10031,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10048,14 +10068,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 48348-2025</t>
+          <t>A 33706-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45933.65431712963</v>
+        <v>45841.78908564815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10068,7 +10088,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>9.4</v>
+        <v>1.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10105,14 +10125,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 58673-2024</t>
+          <t>A 36036-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45635.61019675926</v>
+        <v>45149.39180555556</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10125,7 +10145,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10162,14 +10182,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 30350-2023</t>
+          <t>A 28810-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45111.39873842592</v>
+        <v>44749</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10182,7 +10202,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10219,14 +10239,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 26202-2023</t>
+          <t>A 28817-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45091.54733796296</v>
+        <v>44749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10239,7 +10259,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.2</v>
+        <v>22.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10276,14 +10296,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 51016-2024</t>
+          <t>A 28821-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45603.40053240741</v>
+        <v>44749</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10296,7 +10316,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10333,14 +10353,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 1915-2025</t>
+          <t>A 34452-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45671.66295138889</v>
+        <v>45846.86206018519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10353,7 +10373,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10390,14 +10410,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 28131-2023</t>
+          <t>A 26882-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45099</v>
+        <v>45810.84284722222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10410,7 +10430,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10447,14 +10467,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 28140-2023</t>
+          <t>A 58673-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45099</v>
+        <v>45635.61019675926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10467,7 +10487,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10504,14 +10524,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 26774-2024</t>
+          <t>A 30350-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45469</v>
+        <v>45111.39873842592</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10524,7 +10544,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10561,14 +10581,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 61580-2024</t>
+          <t>A 26202-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45646</v>
+        <v>45091.54733796296</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10581,7 +10601,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10618,14 +10638,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 63418-2023</t>
+          <t>A 51016-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45274</v>
+        <v>45603.40053240741</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10638,7 +10658,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10675,14 +10695,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 16458-2025</t>
+          <t>A 51447-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45751.52873842593</v>
+        <v>45950.5884375</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10695,7 +10715,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10732,14 +10752,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 3077-2024</t>
+          <t>A 51674-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45316.43134259259</v>
+        <v>45951.50398148148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10752,7 +10772,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10789,14 +10809,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 37128-2025</t>
+          <t>A 51676-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45875.54210648148</v>
+        <v>45951.50607638889</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10809,7 +10829,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10846,14 +10866,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 37438-2025</t>
+          <t>A 1915-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45877.53517361111</v>
+        <v>45671.66295138889</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10866,7 +10886,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10903,14 +10923,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 51447-2025</t>
+          <t>A 28131-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45950.5884375</v>
+        <v>45099</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10923,7 +10943,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10960,14 +10980,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 51674-2025</t>
+          <t>A 28140-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45951.50398148148</v>
+        <v>45099</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10980,7 +11000,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11017,14 +11037,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 51676-2025</t>
+          <t>A 26774-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45951.50607638889</v>
+        <v>45469</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11037,7 +11057,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11074,14 +11094,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 51446-2025</t>
+          <t>A 61580-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45950.58693287037</v>
+        <v>45646</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11094,7 +11114,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11131,14 +11151,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 38065-2025</t>
+          <t>A 51446-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45882</v>
+        <v>45950.58693287037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11150,13 +11170,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11193,14 +11208,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 38779-2022</t>
+          <t>A 63418-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44816.42069444444</v>
+        <v>45274</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11213,7 +11228,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11250,14 +11265,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 38125-2025</t>
+          <t>A 3077-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45882.55325231481</v>
+        <v>45316.43134259259</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11270,7 +11285,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11307,14 +11322,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 45601-2022</t>
+          <t>A 16458-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44845.56953703704</v>
+        <v>45751.52873842593</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11327,7 +11342,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11364,14 +11379,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 38063-2025</t>
+          <t>A 38779-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45882</v>
+        <v>44816.42069444444</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11383,13 +11398,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>11.4</v>
+        <v>1.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11426,14 +11436,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 38067-2025</t>
+          <t>A 45601-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45882</v>
+        <v>44845.56953703704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11445,13 +11455,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11495,7 +11500,7 @@
         <v>45696.44892361111</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11545,14 +11550,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 38122-2025</t>
+          <t>A 37128-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45882.55258101852</v>
+        <v>45875.54210648148</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11565,7 +11570,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.8</v>
+        <v>4.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11602,14 +11607,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 38069-2025</t>
+          <t>A 37438-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45882</v>
+        <v>45877.53517361111</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11621,13 +11626,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>6.8</v>
+        <v>1.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11664,14 +11664,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 17941-2025</t>
+          <t>A 929-2026</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45760.58021990741</v>
+        <v>46030.51197916667</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11721,14 +11721,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 54892-2021</t>
+          <t>A 55048-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44474.36921296296</v>
+        <v>45967.66598379629</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11778,14 +11778,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 7419-2026</t>
+          <t>A 38065-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46059.42384259259</v>
+        <v>45882</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11797,8 +11797,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>0.4</v>
+        <v>4.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11835,14 +11840,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 55048-2025</t>
+          <t>A 17941-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45967.66598379629</v>
+        <v>45760.58021990741</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11855,7 +11860,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11892,14 +11897,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 2780-2023</t>
+          <t>A 38125-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44944.65483796296</v>
+        <v>45882.55325231481</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11912,7 +11917,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11949,14 +11954,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 55647-2025</t>
+          <t>A 38063-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45972</v>
+        <v>45882</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11968,8 +11973,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>0.4</v>
+        <v>11.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12006,14 +12016,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 48893-2024</t>
+          <t>A 38067-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45594.34168981481</v>
+        <v>45882</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12025,8 +12035,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12063,14 +12078,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 56266-2025</t>
+          <t>A 54892-2021</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45974.58144675926</v>
+        <v>44474.36921296296</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12083,7 +12098,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12120,14 +12135,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 54987-2024</t>
+          <t>A 38122-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45620.8308912037</v>
+        <v>45882.55258101852</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12140,7 +12155,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12177,14 +12192,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 10943-2022</t>
+          <t>A 2780-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44628</v>
+        <v>44944.65483796296</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12197,7 +12212,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12234,14 +12249,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 1876-2022</t>
+          <t>A 48893-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44575.29486111111</v>
+        <v>45594.34168981481</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12254,7 +12269,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12291,14 +12306,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 58526-2025</t>
+          <t>A 2681-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45985.72394675926</v>
+        <v>46037.65422453704</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12310,13 +12325,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>8.300000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12353,14 +12363,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 58527-2025</t>
+          <t>A 2693-2026</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45985.72804398148</v>
+        <v>46037.66849537037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12372,13 +12382,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12415,14 +12420,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 58528-2025</t>
+          <t>A 2690-2026</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45985.73052083333</v>
+        <v>46037.66392361111</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12434,13 +12439,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12477,14 +12477,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 58158-2025</t>
+          <t>A 54987-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45982</v>
+        <v>45620.8308912037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12497,7 +12497,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12534,14 +12534,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 15516-2023</t>
+          <t>A 10943-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45020</v>
+        <v>44628</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12554,7 +12554,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12591,14 +12591,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 15518-2023</t>
+          <t>A 1876-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45020</v>
+        <v>44575.29486111111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12648,14 +12648,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 51588-2023</t>
+          <t>A 60583-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45222</v>
+        <v>45996</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12705,14 +12705,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 40883-2023</t>
+          <t>A 3282-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45173.37297453704</v>
+        <v>46041.62421296296</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12762,14 +12762,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 40638-2024</t>
+          <t>A 15516-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45558.29855324074</v>
+        <v>45020</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12819,14 +12819,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 9016-2026</t>
+          <t>A 15518-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46069.49152777778</v>
+        <v>45020</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12876,14 +12876,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 58668-2024</t>
+          <t>A 3794-2026</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45635.6093287037</v>
+        <v>46043.57814814815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12933,14 +12933,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 56767-2022</t>
+          <t>A 3778-2026</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44894</v>
+        <v>46043.56719907407</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12990,14 +12990,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 929-2026</t>
+          <t>A 61275-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46030.51197916667</v>
+        <v>46000.686875</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13047,14 +13047,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 26329-2024</t>
+          <t>A 61269-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45469</v>
+        <v>46000.68230324074</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13066,13 +13066,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>4.9</v>
+        <v>0.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13109,14 +13104,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 28813-2022</t>
+          <t>A 61271-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44749</v>
+        <v>46000.6846412037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13129,7 +13124,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13166,14 +13161,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 28816-2022</t>
+          <t>A 61273-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44749</v>
+        <v>46000.68589120371</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13186,7 +13181,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>5.2</v>
+        <v>2.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13223,14 +13218,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 2681-2026</t>
+          <t>A 51588-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46037.65422453704</v>
+        <v>45222</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13243,7 +13238,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13280,14 +13275,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 2693-2026</t>
+          <t>A 3783-2026</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>46037.66849537037</v>
+        <v>46043.57157407407</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13300,7 +13295,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13337,14 +13332,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 2690-2026</t>
+          <t>A 3787-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46037.66392361111</v>
+        <v>46043.57262731482</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13357,7 +13352,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13394,14 +13389,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 16459-2025</t>
+          <t>A 40883-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45751.53125</v>
+        <v>45173.37297453704</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13414,7 +13409,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13451,14 +13446,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 11075-2022</t>
+          <t>A 40638-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44628.6541087963</v>
+        <v>45558.29855324074</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13471,7 +13466,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13508,14 +13503,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 28135-2023</t>
+          <t>A 3775-2026</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45099</v>
+        <v>46043.56471064815</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13528,7 +13523,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13565,14 +13560,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 60583-2025</t>
+          <t>A 3792-2026</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45996</v>
+        <v>46043.57667824074</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13585,7 +13580,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13622,14 +13617,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 3282-2026</t>
+          <t>A 58668-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46041.62421296296</v>
+        <v>45635.6093287037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13642,7 +13637,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13679,14 +13674,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 19370-2024</t>
+          <t>A 56767-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45429.34811342593</v>
+        <v>44894</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13699,7 +13694,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13736,14 +13731,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 15252-2024</t>
+          <t>A 26329-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45400.54119212963</v>
+        <v>45469</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13755,8 +13750,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>0.2</v>
+        <v>4.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13793,14 +13793,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 44158-2023</t>
+          <t>A 28813-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45188.48688657407</v>
+        <v>44749</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13850,14 +13850,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 23152-2024</t>
+          <t>A 28816-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45450.65791666666</v>
+        <v>44749</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13907,14 +13907,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 49846-2024</t>
+          <t>A 16459-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45597.45862268518</v>
+        <v>45751.53125</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13926,13 +13926,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13969,14 +13964,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 3794-2026</t>
+          <t>A 11075-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46043.57814814815</v>
+        <v>44628.6541087963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13989,7 +13984,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14026,14 +14021,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 7754-2025</t>
+          <t>A 28135-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45706.50554398148</v>
+        <v>45099</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14046,7 +14041,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14083,14 +14078,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 3778-2026</t>
+          <t>A 19370-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46043.56719907407</v>
+        <v>45429.34811342593</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14103,7 +14098,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14140,14 +14135,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 61275-2025</t>
+          <t>A 15252-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46000.686875</v>
+        <v>45400.54119212963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14160,7 +14155,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14197,14 +14192,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 61269-2025</t>
+          <t>A 44158-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>46000.68230324074</v>
+        <v>45188.48688657407</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14217,7 +14212,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14254,14 +14249,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 61271-2025</t>
+          <t>A 23152-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>46000.6846412037</v>
+        <v>45450.65791666666</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14274,7 +14269,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14311,14 +14306,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 61273-2025</t>
+          <t>A 5961-2026</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>46000.68589120371</v>
+        <v>46052.50719907408</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14331,7 +14326,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14368,14 +14363,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 3783-2026</t>
+          <t>A 49846-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>46043.57157407407</v>
+        <v>45597.45862268518</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14387,8 +14382,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14425,14 +14425,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 3787-2026</t>
+          <t>A 6367-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46043.57262731482</v>
+        <v>46055.62700231482</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14482,14 +14482,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 32252-2023</t>
+          <t>A 7754-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45120</v>
+        <v>45706.50554398148</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14539,14 +14539,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 3775-2026</t>
+          <t>A 32252-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46043.56471064815</v>
+        <v>45120</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14596,14 +14596,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 3792-2026</t>
+          <t>A 28690-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>46043.57667824074</v>
+        <v>45478.49003472222</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14653,14 +14653,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 28690-2024</t>
+          <t>A 15517-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45478.49003472222</v>
+        <v>45020</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14710,14 +14710,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 15517-2023</t>
+          <t>A 7419-2026</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45020</v>
+        <v>46059.42384259259</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14730,7 +14730,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14774,7 +14774,7 @@
         <v>45747</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>45698.55018518519</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45698.55255787037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44797</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44913.54509259259</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44799</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>45287</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>45419.38777777777</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15228,14 +15228,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 54288-2024</t>
+          <t>A 9016-2026</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45617.27299768518</v>
+        <v>46069.49152777778</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15285,14 +15285,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 16149-2025</t>
+          <t>A 54288-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45750.48006944444</v>
+        <v>45617.27299768518</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15342,14 +15342,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 62745-2023</t>
+          <t>A 16149-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45271</v>
+        <v>45750.48006944444</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15399,14 +15399,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 59440-2024</t>
+          <t>A 62745-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45638.44335648148</v>
+        <v>45271</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15456,14 +15456,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 23148-2024</t>
+          <t>A 59440-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45450.64201388889</v>
+        <v>45638.44335648148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15513,14 +15513,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 23153-2024</t>
+          <t>A 23148-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45450.66217592593</v>
+        <v>45450.64201388889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15570,14 +15570,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 45277-2024</t>
+          <t>A 23153-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45576.36799768519</v>
+        <v>45450.66217592593</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15627,14 +15627,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 43160-2023</t>
+          <t>A 45277-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45183.34355324074</v>
+        <v>45576.36799768519</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15684,14 +15684,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 62764-2023</t>
+          <t>A 43160-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45271.64642361111</v>
+        <v>45183.34355324074</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15741,14 +15741,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 53264-2022</t>
+          <t>A 62764-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44876</v>
+        <v>45271.64642361111</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15798,14 +15798,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 56289-2023</t>
+          <t>A 53264-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45242.38527777778</v>
+        <v>44876</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15817,13 +15817,8 @@
           <t>HABO</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15860,14 +15855,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 41910-2022</t>
+          <t>A 56289-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44830</v>
+        <v>45242.38527777778</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15879,8 +15874,13 @@
           <t>HABO</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G253" t="n">
-        <v>7.6</v>
+        <v>2</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15917,14 +15917,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 2861-2025</t>
+          <t>A 41910-2022</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45677.67138888889</v>
+        <v>44830</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15974,14 +15974,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 51027-2023</t>
+          <t>A 2861-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45218.6069212963</v>
+        <v>45677.67138888889</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16031,14 +16031,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 47532-2023</t>
+          <t>A 51027-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45203.35952546296</v>
+        <v>45218.6069212963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16088,14 +16088,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 57755-2023</t>
+          <t>A 47532-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45246.79193287037</v>
+        <v>45203.35952546296</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16145,14 +16145,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 59433-2024</t>
+          <t>A 57755-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45638.42907407408</v>
+        <v>45246.79193287037</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>10.4</v>
+        <v>2.9</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16202,14 +16202,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 12606-2025</t>
+          <t>A 59433-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45733.31362268519</v>
+        <v>45638.42907407408</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.7</v>
+        <v>10.4</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16259,14 +16259,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 48894-2024</t>
+          <t>A 12606-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45594.34311342592</v>
+        <v>45733.31362268519</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16316,14 +16316,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 49447-2024</t>
+          <t>A 48894-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45595.96028935185</v>
+        <v>45594.34311342592</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16373,14 +16373,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 26711-2024</t>
+          <t>A 49447-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45470.40313657407</v>
+        <v>45595.96028935185</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16430,14 +16430,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 54989-2024</t>
+          <t>A 26711-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45620.84454861111</v>
+        <v>45470.40313657407</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16487,14 +16487,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 54990-2024</t>
+          <t>A 54989-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45620.8468287037</v>
+        <v>45620.84454861111</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16544,14 +16544,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 17294-2025</t>
+          <t>A 54990-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45756.5894675926</v>
+        <v>45620.8468287037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16601,14 +16601,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 23145-2024</t>
+          <t>A 17294-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45450.63736111111</v>
+        <v>45756.5894675926</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16658,14 +16658,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 23156-2024</t>
+          <t>A 23145-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45450.6659375</v>
+        <v>45450.63736111111</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16715,14 +16715,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 15251-2024</t>
+          <t>A 23156-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45400.53930555555</v>
+        <v>45450.6659375</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.3</v>
+        <v>7.5</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16772,14 +16772,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 4957-2025</t>
+          <t>A 15251-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45689.57192129629</v>
+        <v>45400.53930555555</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16829,14 +16829,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 12999-2025</t>
+          <t>A 4957-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45734.49229166667</v>
+        <v>45689.57192129629</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16886,14 +16886,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 476-2024</t>
+          <t>A 12999-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45297.8840625</v>
+        <v>45734.49229166667</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16943,14 +16943,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 59439-2024</t>
+          <t>A 476-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45638.43947916666</v>
+        <v>45297.8840625</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17000,14 +17000,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 30863-2023</t>
+          <t>A 59439-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45113</v>
+        <v>45638.43947916666</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17057,14 +17057,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 40280-2024</t>
+          <t>A 30863-2023</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45554</v>
+        <v>45113</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>6.9</v>
+        <v>2.8</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17114,14 +17114,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 54693-2023</t>
+          <t>A 40280-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45236.28766203704</v>
+        <v>45554</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>5.3</v>
+        <v>6.9</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17171,14 +17171,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 51444-2023</t>
+          <t>A 54693-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45220.40077546296</v>
+        <v>45236.28766203704</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17228,14 +17228,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 8849-2024</t>
+          <t>A 51444-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45356.85099537037</v>
+        <v>45220.40077546296</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17285,14 +17285,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 54270-2024</t>
+          <t>A 8849-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45616.81366898148</v>
+        <v>45356.85099537037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17342,14 +17342,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 679-2025</t>
+          <t>A 54270-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45664.84519675926</v>
+        <v>45616.81366898148</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17399,14 +17399,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 2073-2023</t>
+          <t>A 679-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44939</v>
+        <v>45664.84519675926</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17456,14 +17456,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 11906-2023</t>
+          <t>A 2073-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44995</v>
+        <v>44939</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17513,14 +17513,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 26207-2023</t>
+          <t>A 11906-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45091.55079861111</v>
+        <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17570,14 +17570,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 53300-2022</t>
+          <t>A 26207-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>44877</v>
+        <v>45091.55079861111</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17627,14 +17627,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 14724-2024</t>
+          <t>A 53300-2022</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45397</v>
+        <v>44877</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17684,14 +17684,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 1699-2024</t>
+          <t>A 14724-2024</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45307</v>
+        <v>45397</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17741,14 +17741,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 46062-2024</t>
+          <t>A 1699-2024</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45580.94521990741</v>
+        <v>45307</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17798,14 +17798,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 13880-2023</t>
+          <t>A 46062-2024</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45007</v>
+        <v>45580.94521990741</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17855,14 +17855,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 36483-2023</t>
+          <t>A 13880-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45152.73112268518</v>
+        <v>45007</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17912,14 +17912,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 31909-2024</t>
+          <t>A 36483-2023</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45510.35284722222</v>
+        <v>45152.73112268518</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17969,14 +17969,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 45275-2024</t>
+          <t>A 31909-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45576.36652777778</v>
+        <v>45510.35284722222</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -18026,14 +18026,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 58666-2024</t>
+          <t>A 45275-2024</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45635.60771990741</v>
+        <v>45576.36652777778</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -18083,14 +18083,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 57422-2023</t>
+          <t>A 58666-2024</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45246</v>
+        <v>45635.60771990741</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -18140,14 +18140,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 35775-2022</t>
+          <t>A 57422-2023</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>44801.56965277778</v>
+        <v>45246</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18197,14 +18197,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 10330-2025</t>
+          <t>A 35775-2022</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45720</v>
+        <v>44801.56965277778</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -18254,14 +18254,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 17519-2025</t>
+          <t>A 10330-2025</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45757.57725694445</v>
+        <v>45720</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18274,7 +18274,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -18311,14 +18311,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 17520-2025</t>
+          <t>A 17519-2025</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45757.57844907408</v>
+        <v>45757.57725694445</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18331,7 +18331,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18368,14 +18368,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 47836-2023</t>
+          <t>A 17520-2025</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45204.37240740741</v>
+        <v>45757.57844907408</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>4.8</v>
+        <v>1.7</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18425,14 +18425,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 49448-2024</t>
+          <t>A 47836-2023</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45595.96385416666</v>
+        <v>45204.37240740741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18482,14 +18482,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 13850-2024</t>
+          <t>A 49448-2024</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45390</v>
+        <v>45595.96385416666</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>4.6</v>
+        <v>2</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18539,14 +18539,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 57999-2024</t>
+          <t>A 13850-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45631.63677083333</v>
+        <v>45390</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18559,7 +18559,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18596,14 +18596,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 59928-2022</t>
+          <t>A 57999-2024</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>44909.34195601852</v>
+        <v>45631.63677083333</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18616,7 +18616,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18653,14 +18653,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 11426-2024</t>
+          <t>A 59928-2022</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45372.50304398148</v>
+        <v>44909.34195601852</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18673,7 +18673,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18710,14 +18710,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 61665-2024</t>
+          <t>A 11426-2024</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45647.29790509259</v>
+        <v>45372.50304398148</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18730,7 +18730,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18767,14 +18767,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 58430-2021</t>
+          <t>A 61665-2024</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>44488</v>
+        <v>45647.29790509259</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18787,7 +18787,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18824,14 +18824,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 59057-2024</t>
+          <t>A 58430-2021</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45636</v>
+        <v>44488</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18844,7 +18844,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18881,14 +18881,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 40575-2021</t>
+          <t>A 59057-2024</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>44420</v>
+        <v>45636</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18901,7 +18901,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18938,14 +18938,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 49433-2024</t>
+          <t>A 40575-2021</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45595.82958333333</v>
+        <v>44420</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18958,7 +18958,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18995,14 +18995,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 60679-2024</t>
+          <t>A 49433-2024</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45644.46246527778</v>
+        <v>45595.82958333333</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19015,7 +19015,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -19052,14 +19052,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 32329-2023</t>
+          <t>A 60679-2024</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45120</v>
+        <v>45644.46246527778</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -19109,14 +19109,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 32235-2023</t>
+          <t>A 32329-2023</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45119.95571759259</v>
+        <v>45120</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19129,7 +19129,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>7.1</v>
+        <v>4.8</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -19166,14 +19166,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 32236-2023</t>
+          <t>A 32235-2023</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45119.95995370371</v>
+        <v>45119.95571759259</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>1.3</v>
+        <v>7.1</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -19223,14 +19223,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 58452-2021</t>
+          <t>A 32236-2023</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>44488</v>
+        <v>45119.95995370371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -19280,14 +19280,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 58458-2021</t>
+          <t>A 58452-2021</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
         <v>44488</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19300,7 +19300,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -19337,14 +19337,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 34738-2021</t>
+          <t>A 58458-2021</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>44382.66885416667</v>
+        <v>44488</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19357,7 +19357,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -19394,14 +19394,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 6226-2025</t>
+          <t>A 34738-2021</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45698.54723379629</v>
+        <v>44382.66885416667</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19414,7 +19414,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -19451,14 +19451,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 32238-2023</t>
+          <t>A 6226-2025</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45119.96327546296</v>
+        <v>45698.54723379629</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19508,14 +19508,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 36481-2023</t>
+          <t>A 32238-2023</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45152.72302083333</v>
+        <v>45119.96327546296</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19528,7 +19528,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>5.3</v>
+        <v>1.3</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19565,14 +19565,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 11887-2023</t>
+          <t>A 36481-2023</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>44995.43578703704</v>
+        <v>45152.72302083333</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19585,7 +19585,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19622,14 +19622,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 9931-2024</t>
+          <t>A 11887-2023</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45363</v>
+        <v>44995.43578703704</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19642,7 +19642,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19679,14 +19679,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 60971-2022</t>
+          <t>A 9931-2024</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>44914.65731481482</v>
+        <v>45363</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19699,7 +19699,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19736,14 +19736,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 50710-2023</t>
+          <t>A 60971-2022</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45217.56189814815</v>
+        <v>44914.65731481482</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19793,14 +19793,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 29408-2023</t>
+          <t>A 50710-2023</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45106</v>
+        <v>45217.56189814815</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19850,14 +19850,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 32245-2023</t>
+          <t>A 29408-2023</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45119.99208333333</v>
+        <v>45106</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19907,14 +19907,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 32246-2023</t>
+          <t>A 32245-2023</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45120</v>
+        <v>45119.99208333333</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19964,14 +19964,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 32247-2023</t>
+          <t>A 32246-2023</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45120.00594907408</v>
+        <v>45120</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20021,14 +20021,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 32253-2023</t>
+          <t>A 32247-2023</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45120.05320601852</v>
+        <v>45120.00594907408</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20041,7 +20041,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -20078,14 +20078,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 4551-2025</t>
+          <t>A 32253-2023</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45687.41087962963</v>
+        <v>45120.05320601852</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -20135,14 +20135,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 31591-2022</t>
+          <t>A 4551-2025</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>44775.56290509259</v>
+        <v>45687.41087962963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -20192,14 +20192,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 2374-2024</t>
+          <t>A 31591-2022</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45310.62752314815</v>
+        <v>44775.56290509259</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>6.8</v>
+        <v>0.5</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -20249,14 +20249,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 21072-2025</t>
+          <t>A 2374-2024</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45777.59802083333</v>
+        <v>45310.62752314815</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>1.3</v>
+        <v>6.8</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -20306,14 +20306,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 21073-2025</t>
+          <t>A 21072-2025</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>45777.59881944444</v>
+        <v>45777.59802083333</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -20363,14 +20363,14 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 22691-2025</t>
+          <t>A 21073-2025</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45789.53395833333</v>
+        <v>45777.59881944444</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>

--- a/Översikt HABO.xlsx
+++ b/Översikt HABO.xlsx
@@ -575,7 +575,7 @@
         <v>45337</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>44390</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45742.61181712963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>44749</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45183</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>45791.56258101852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44390</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>45534</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>45621.90853009259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>45810.83770833333</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>45419.38972222222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>45811</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>44749</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>45930</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>45635.60858796296</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>45106</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>45631.49844907408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>45635.6062037037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>44877</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>45597.48165509259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45882</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>45635.58991898148</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>45225</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>45534</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>45183</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>45742.61011574074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45742.60506944444</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>45807.56219907408</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44274</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44847.35423611111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>44853</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>44527</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44455.3859375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44769</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44260.38792824074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44824</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44846</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>44424.39243055556</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>44362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>44424.40524305555</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44877.83546296296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>44693</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44693</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>44640</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>44424.39822916667</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44424.40296296297</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>44382</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44427.45282407408</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44670.58172453703</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44859</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44727</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44500</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44424</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44469.75280092593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>44623</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>44348.44641203704</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45475.55986111111</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45212</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>45683.76944444444</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>45091.55373842592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>45660.48642361111</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>45029.6452662037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>45641.84190972222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>45698.54895833333</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>45636</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>45543.56393518519</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>45687.40525462963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>44801.57503472222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>45597.4624537037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>45030</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>45111.38814814815</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>45406.46671296296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>45478.48681712963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>44571.60380787037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>44749</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>45475.55299768518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>45475.55913194444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>45120</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>45146.55858796297</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>45602.50542824074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>45620.84238425926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>44783.33467592593</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>45621.9333449074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>45595.95630787037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>45595.96761574074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>45621.90494212963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>45621.90680555555</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>45621.93943287037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>45030.67268518519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>45210.54012731482</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>45278</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>45475.56065972222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>44488</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>44384</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>44951</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>44384</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>45887.38887731481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>45806.33793981482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>45887.39712962963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>45811</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>45621</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>45621.93097222222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>45621.93724537037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>44896.42854166667</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>45820.45122685185</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>45597.468125</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>45827.45424768519</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>45827.45251157408</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>45560.60371527778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>45107.45170138889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>44799.41391203704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>45833.71021990741</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>45896.79884259259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>45897.34652777778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>45835.66958333334</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>45121</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>45833.78055555555</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>45149.39180555556</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>44749</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>44749</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>44749</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>45903.46984953704</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>45635.61019675926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>45111.39873842592</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>45091.54733796296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>45603.40053240741</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>45799.59719907407</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>45467.65891203703</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>45671.66295138889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>45099</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>45099</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>45841.78908564815</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>45469</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>45646</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>45274</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>45846.86206018519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45316.43134259259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>45810.84284722222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>45922.28649305556</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>44816.42069444444</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>44845.56953703704</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>45922.29103009259</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>45696.44892361111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>45923.59528935186</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>45926.34577546296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>45926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>45751.52873842593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>45760.58021990741</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>45931.72253472222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>45875.54210648148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44474.36921296296</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>45877.53517361111</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>45933.65431712963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>44944.65483796296</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>45882</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>45594.34168981481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>45882.55325231481</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>45882</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45882</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>45882.55258101852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>45620.8308912037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>44628</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>44575.29486111111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>45020</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>45020</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>45882</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11101,7 +11101,7 @@
         <v>45950.5884375</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11158,7 +11158,7 @@
         <v>45951.50398148148</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11215,7 +11215,7 @@
         <v>45951.50607638889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>45222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>45950.58693287037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>45173.37297453704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>45558.29855324074</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11500,7 +11500,7 @@
         <v>45635.6093287037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>44894</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         <v>45469</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44749</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44749</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>45751.53125</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44628.6541087963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>45099</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>45429.34811342593</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12018,7 +12018,7 @@
         <v>45400.54119212963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>45188.48688657407</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>45967.66598379629</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>45450.65791666666</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>45597.45862268518</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>45706.50554398148</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>45972</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>45974.58144675926</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>45120</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>45478.49003472222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>45985.72394675926</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>45985.72804398148</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>45985.73052083333</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>45982</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>45020</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>45747</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>45698.55018518519</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>45698.55255787037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44797</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>46037.65422453704</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>46037.66849537037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44913.54509259259</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44799</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         <v>46037.66392361111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         <v>45287</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>45996</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>46041.62421296296</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>45419.38777777777</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>45617.27299768518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>46043.57814814815</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>46043.56719907407</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>45750.48006944444</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>46000.686875</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>46000.68230324074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>46000.6846412037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>45271</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>46000.68589120371</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>46043.57157407407</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>46043.57262731482</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>45638.44335648148</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>46043.56471064815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>46043.57667824074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>45450.64201388889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>45450.66217592593</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>45576.36799768519</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>45183.34355324074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>45271.64642361111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44876</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>46052.50719907408</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>46055.62700231482</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>45242.38527777778</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44830</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>45677.67138888889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>45218.6069212963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>45203.35952546296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>45246.79193287037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>45638.42907407408</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>45733.31362268519</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>45594.34311342592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>46059.42384259259</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>45595.96028935185</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>45470.40313657407</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15582,7 +15582,7 @@
         <v>45620.84454861111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>45620.8468287037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
         <v>45756.5894675926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>45450.63736111111</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>45450.6659375</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>45400.53930555555</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45689.57192129629</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>46069.49152777778</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>45734.49229166667</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>45297.8840625</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45638.43947916666</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>45113</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>45554</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>45236.28766203704</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>46030.51197916667</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>45220.40077546296</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>45356.85099537037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>45616.81366898148</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45664.84519675926</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>44939</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>44995</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45091.55079861111</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44877</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>45397</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>45307</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>45580.94521990741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>45007</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>45152.73112268518</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>45510.35284722222</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>45576.36652777778</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>45635.60771990741</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>45246</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>44801.56965277778</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>45720</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>45757.57725694445</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>45757.57844907408</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>45204.37240740741</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         <v>45595.96385416666</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>45390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17805,7 +17805,7 @@
         <v>45631.63677083333</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>44909.34195601852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>45372.50304398148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>45647.29790509259</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>44488</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>45636</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>44420</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>45595.82958333333</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>45644.46246527778</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18318,7 +18318,7 @@
         <v>45120</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18375,7 +18375,7 @@
         <v>45119.95571759259</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>45119.95995370371</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>44488</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44488</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44382.66885416667</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>45698.54723379629</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>45119.96327546296</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45152.72302083333</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>44995.43578703704</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45363</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>44914.65731481482</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>45217.56189814815</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19059,7 +19059,7 @@
         <v>45106</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19116,7 +19116,7 @@
         <v>45119.99208333333</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19173,7 +19173,7 @@
         <v>45120</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19230,7 +19230,7 @@
         <v>45120.00594907408</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>45120.05320601852</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>45687.41087962963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44775.56290509259</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>45310.62752314815</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>45777.59802083333</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>45777.59881944444</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>45789.53395833333</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>45790</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>45608</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>45742.60814814815</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45364.6840162037</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>45021</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>45734.48027777778</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>45807.56061342593</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>45810.52659722222</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>45810.83994212963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>45810</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>45812.60753472222</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>45813.62425925926</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>45814.71005787037</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>

--- a/Översikt HABO.xlsx
+++ b/Översikt HABO.xlsx
@@ -575,7 +575,7 @@
         <v>45337</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>44390</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45742.61181712963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>44749</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45183</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>45791.56258101852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44390</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>45534</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>45621.90853009259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>45810.83770833333</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>45419.38972222222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>45811</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>44749</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>45930</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>45635.60858796296</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>45106</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>45631.49844907408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>45635.6062037037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>44877</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>45597.48165509259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45882</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>45635.58991898148</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>45225</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>45534</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>45183</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>45742.61011574074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45742.60506944444</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>45807.56219907408</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44274</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44847.35423611111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>44853</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>44527</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44455.3859375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44769</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44260.38792824074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44824</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44846</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>44424.39243055556</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>44362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>44424.40524305555</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44877.83546296296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>44693</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44693</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>44640</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>44424.39822916667</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44424.40296296297</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>44382</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44427.45282407408</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44670.58172453703</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44859</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44727</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44500</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44424</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44469.75280092593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>44623</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>44348.44641203704</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45475.55986111111</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45212</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>45683.76944444444</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>45091.55373842592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>45660.48642361111</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>45029.6452662037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>45641.84190972222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>45698.54895833333</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>45636</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>45543.56393518519</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>45687.40525462963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>44801.57503472222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>45597.4624537037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>45030</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>45111.38814814815</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>45406.46671296296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>45478.48681712963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>44571.60380787037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>44749</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>45475.55299768518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>45475.55913194444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>45120</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>45146.55858796297</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>45602.50542824074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>45620.84238425926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>44783.33467592593</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>45621.9333449074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>45595.95630787037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>45595.96761574074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>45621.90494212963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>45621.90680555555</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>45621.93943287037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>45030.67268518519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>45210.54012731482</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>45278</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>45475.56065972222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>44488</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>44384</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>44951</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>44384</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>45887.38887731481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>45806.33793981482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>45887.39712962963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>45811</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>45621</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>45621.93097222222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>45621.93724537037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>44896.42854166667</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>45820.45122685185</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>45597.468125</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>45827.45424768519</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>45827.45251157408</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>45560.60371527778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>45107.45170138889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>44799.41391203704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>45833.71021990741</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>45896.79884259259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>45897.34652777778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>45835.66958333334</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>45121</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>45833.78055555555</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>45149.39180555556</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>44749</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>44749</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>44749</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>45903.46984953704</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>45635.61019675926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>45111.39873842592</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>45091.54733796296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>45603.40053240741</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>45799.59719907407</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>45467.65891203703</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>45671.66295138889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>45099</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>45099</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>45841.78908564815</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>45469</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>45646</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>45274</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>45846.86206018519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45316.43134259259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>45810.84284722222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>45922.28649305556</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>44816.42069444444</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>44845.56953703704</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>45922.29103009259</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>45696.44892361111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>45923.59528935186</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>45926.34577546296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>45926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>45751.52873842593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>45760.58021990741</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>45931.72253472222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>45875.54210648148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44474.36921296296</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>45877.53517361111</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>45933.65431712963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>44944.65483796296</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>45882</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>45594.34168981481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>45882.55325231481</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>45882</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45882</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>45882.55258101852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>45620.8308912037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>44628</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>44575.29486111111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>45020</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>45020</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>45882</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11101,7 +11101,7 @@
         <v>45950.5884375</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11158,7 +11158,7 @@
         <v>45951.50398148148</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11215,7 +11215,7 @@
         <v>45951.50607638889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>45222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>45950.58693287037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>45173.37297453704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>45558.29855324074</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11500,7 +11500,7 @@
         <v>45635.6093287037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>44894</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         <v>45469</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44749</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44749</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>45751.53125</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44628.6541087963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>45099</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>45429.34811342593</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12018,7 +12018,7 @@
         <v>45400.54119212963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>45188.48688657407</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>45967.66598379629</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>45450.65791666666</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>45597.45862268518</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>45706.50554398148</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>45972</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>45974.58144675926</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>45120</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>45478.49003472222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>45985.72394675926</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>45985.72804398148</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>45985.73052083333</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>45982</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>45020</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>45747</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>45698.55018518519</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>45698.55255787037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44797</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>46037.65422453704</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>46037.66849537037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44913.54509259259</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44799</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         <v>46037.66392361111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         <v>45287</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>45996</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>46041.62421296296</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>45419.38777777777</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>45617.27299768518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>46043.57814814815</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>46043.56719907407</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>45750.48006944444</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>46000.686875</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>46000.68230324074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>46000.6846412037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>45271</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>46000.68589120371</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>46043.57157407407</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>46043.57262731482</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>45638.44335648148</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>46043.56471064815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>46043.57667824074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>45450.64201388889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>45450.66217592593</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>45576.36799768519</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>45183.34355324074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>45271.64642361111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44876</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>46052.50719907408</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>46055.62700231482</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>45242.38527777778</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44830</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>45677.67138888889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>45218.6069212963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>45203.35952546296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>45246.79193287037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>45638.42907407408</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>45733.31362268519</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>45594.34311342592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>46059.42384259259</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>45595.96028935185</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>45470.40313657407</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15582,7 +15582,7 @@
         <v>45620.84454861111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>45620.8468287037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
         <v>45756.5894675926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>45450.63736111111</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>45450.6659375</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>45400.53930555555</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45689.57192129629</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>46069.49152777778</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>45734.49229166667</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>45297.8840625</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45638.43947916666</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>45113</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>45554</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>45236.28766203704</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>46030.51197916667</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>45220.40077546296</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>45356.85099537037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>45616.81366898148</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45664.84519675926</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>44939</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>44995</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45091.55079861111</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44877</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>45397</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>45307</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>45580.94521990741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>45007</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>45152.73112268518</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>45510.35284722222</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>45576.36652777778</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>45635.60771990741</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>45246</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>44801.56965277778</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>45720</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>45757.57725694445</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>45757.57844907408</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>45204.37240740741</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         <v>45595.96385416666</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>45390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17805,7 +17805,7 @@
         <v>45631.63677083333</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>44909.34195601852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>45372.50304398148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>45647.29790509259</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>44488</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>45636</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>44420</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>45595.82958333333</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>45644.46246527778</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18318,7 +18318,7 @@
         <v>45120</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18375,7 +18375,7 @@
         <v>45119.95571759259</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>45119.95995370371</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>44488</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>44488</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44382.66885416667</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>45698.54723379629</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>45119.96327546296</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45152.72302083333</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>44995.43578703704</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45363</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>44914.65731481482</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>45217.56189814815</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19059,7 +19059,7 @@
         <v>45106</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19116,7 +19116,7 @@
         <v>45119.99208333333</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19173,7 +19173,7 @@
         <v>45120</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19230,7 +19230,7 @@
         <v>45120.00594907408</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>45120.05320601852</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>45687.41087962963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44775.56290509259</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>45310.62752314815</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>45777.59802083333</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>45777.59881944444</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>45789.53395833333</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>45790</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>45608</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>45742.60814814815</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45364.6840162037</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>45021</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>45734.48027777778</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>45807.56061342593</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>45810.52659722222</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>45810.83994212963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>45810</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>45812.60753472222</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>45813.62425925926</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>45814.71005787037</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>

--- a/Översikt HABO.xlsx
+++ b/Översikt HABO.xlsx
@@ -575,7 +575,7 @@
         <v>45337</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>44390</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45742.61181712963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>44749</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45183</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>45791.56258101852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44390</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>45810.83770833333</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>45621.90853009259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45534</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>45419.38972222222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>45635.60858796296</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45811</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>45631.49844907408</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>45930</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>45106</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>44749</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>45635.6062037037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>45225</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>45534</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45807.56219907408</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>44877</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>45635.58991898148</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>45882</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45183</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>45597.48165509259</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45742.61011574074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>45742.60506944444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44274</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44847.35423611111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>44853</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>44527</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44455.3859375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>44769</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>44260.38792824074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>44824</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>44846</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>44424.39243055556</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>44362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>44424.40524305555</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>44693</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>44877.83546296296</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44693</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>44640</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>44424.39822916667</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>44424.40296296297</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>44382</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44427.45282407408</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44670.58172453703</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44859</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44727</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44500</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44424</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44469.75280092593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>44623</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>44348.44641203704</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>44799.41391203704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45203.35952546296</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>45310.62752314815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>45698.55018518519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>45698.55255787037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>45218.6069212963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>45363</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>45297.8840625</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>45478.48681712963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>45450.63736111111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>45450.6659375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>45390</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>45594.34311342592</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>45469</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>45620.8468287037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>44939</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>45246.79193287037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>45635.61019675926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>44488</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>44488</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>45597.468125</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>45646</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>45560.60371527778</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>44384</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>44488</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>45677.67138888889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>44628.6541087963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>45810</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>45887.39712962963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>45887.38887731481</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>45810.52659722222</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>45603.40053240741</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>45807.56061342593</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>45806.33793981482</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>45882</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>45812.60753472222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>45810.83994212963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>45671.66295138889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>45813.62425925926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>45814.71005787037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>45543.56393518519</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>45636</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>45811</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>45820.45122685185</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>45595.95630787037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>45595.96761574074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>44749</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>44995</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>45210.54012731482</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>45897.34652777778</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>45896.79884259259</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>45554</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>45827.45251157408</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>45827.45424768519</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>45903.46984953704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>45833.78055555555</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>44914.65731481482</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>44816.42069444444</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>45833.71021990741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>45733.31362268519</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>45597.4624537037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>45835.66958333334</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>45107.45170138889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>45841.78908564815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>45638.43947916666</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>44488</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>45467.65891203703</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>45846.86206018519</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>45799.59719907407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>45810.84284722222</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>45696.44892361111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>45119.96327546296</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>45119.99208333333</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>45120</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>45922.28649305556</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>45922.29103009259</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>45923.59528935186</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>45146.55858796297</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>45926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>45660.48642361111</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45926.34577546296</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>45647.29790509259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>45931.72253472222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>45751.52873842593</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>45875.54210648148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>44382.66885416667</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>45877.53517361111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>45478.49003472222</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>45450.64201388889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>45450.66217592593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>45882.55258101852</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>45882</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>45882.55325231481</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>45698.54723379629</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>45698.54895833333</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>45687.40525462963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>45882</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>45882</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>45933.65431712963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>45757.57725694445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>45757.57844907408</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>45111.39873842592</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>45621</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>45621.93097222222</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>45621.93724537037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>45113</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>44830</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>45007</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>45751.53125</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>45173.37297453704</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44876</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44420</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>45689.57192129629</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44845.56953703704</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44894</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>45620.84454861111</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>45091.55079861111</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44749</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>44749</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>45950.5884375</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>45236.28766203704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>45631.63677083333</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>45951.50607638889</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>45558.29855324074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>45099</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>45636</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>45120</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>45287</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>45020</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>45397</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44951</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>45967.66598379629</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45972</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45029.6452662037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45974.58144675926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45419.38777777777</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45149.39180555556</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45510.35284722222</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>45475.56065972222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>45121</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>45576.36652777778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>45602.50542824074</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>45635.6093287037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>45020</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>45020</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>45099</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>45638.42907407408</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>45706.50554398148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45621.90494212963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45621.90680555555</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>45621.93943287037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>45985.72394675926</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>45429.34811342593</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>45580.94521990741</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>45119.95571759259</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>45119.95995370371</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>45985.72804398148</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45985.73052083333</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>45356.85099537037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>45982</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>45576.36799768519</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>45621.9333449074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>45111.38814814815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>44571.60380787037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>45450.65791666666</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45106</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>45996</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>46041.62421296296</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>45616.81366898148</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>45617.27299768518</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>45638.44335648148</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>45683.76944444444</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>44783.33467592593</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>45597.45862268518</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>46043.56471064815</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>46043.57667824074</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>45099</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>46043.57157407407</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>46000.6846412037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>46000.686875</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>46000.68589120371</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>45687.41087962963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>45220.40077546296</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>46043.56719907407</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>46043.57814814815</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>46000.68230324074</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>46043.57262731482</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15510,7 +15510,7 @@
         <v>45620.8308912037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15567,7 +15567,7 @@
         <v>45594.34168981481</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>45152.72302083333</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15681,7 +15681,7 @@
         <v>45120</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15738,7 +15738,7 @@
         <v>45246</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>45120</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>45183.34355324074</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>45188.48688657407</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44749</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>46055.62700231482</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>46052.50719907408</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>45760.58021990741</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44801.56965277778</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>45316.43134259259</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>45734.49229166667</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>45242.38527777778</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16427,7 +16427,7 @@
         <v>46059.42384259259</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>45756.5894675926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>45475.55299768518</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>45475.55913194444</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>45212</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16712,7 +16712,7 @@
         <v>45274</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>45271</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>46069.49152777778</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>46030.51197916667</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>45595.82958333333</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>45278</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>44896.42854166667</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44575.29486111111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44909.34195601852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>44799</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>45406.46671296296</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>45030</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>44801.57503472222</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17458,7 +17458,7 @@
         <v>45271.64642361111</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         <v>46037.65422453704</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         <v>46037.66392361111</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17629,7 +17629,7 @@
         <v>46037.66849537037</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17686,7 +17686,7 @@
         <v>44749</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>44749</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44995.43578703704</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>45595.96028935185</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44797</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44944.65483796296</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>45152.73112268518</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44913.54509259259</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>45030.67268518519</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>45120.00594907408</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>45120.05320601852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>45400.54119212963</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>45620.84238425926</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>44628</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45641.84190972222</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>45091.54733796296</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>45091.55373842592</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>45204.37240740741</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>45750.48006944444</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44775.56290509259</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>45595.96385416666</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>45307</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>45635.60771990741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         <v>44384</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>45222</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         <v>45664.84519675926</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>45470.40313657407</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>45372.50304398148</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>44474.36921296296</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19339,7 +19339,7 @@
         <v>44877</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
         <v>45475.55986111111</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>45217.56189814815</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>45720</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19567,7 +19567,7 @@
         <v>45644.46246527778</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>45469</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>45400.53930555555</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>45747</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>45777.59802083333</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45777.59881944444</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>45789.53395833333</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>45790</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>45608</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>45742.60814814815</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>45021</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>45364.6840162037</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>45734.48027777778</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
